--- a/Apps/YouTubeAnalysis/Analysis/Content/Step02_TableDataAugmentedExtraColumns.xlsx
+++ b/Apps/YouTubeAnalysis/Analysis/Content/Step02_TableDataAugmentedExtraColumns.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1498" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1279">
   <si>
     <t>Content</t>
   </si>
@@ -2265,6 +2265,450 @@
     <t>Education</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
     <t>VideoDuration</t>
   </si>
   <si>
@@ -2478,6 +2922,9 @@
     <t>55:14</t>
   </si>
   <si>
+    <t>6:59</t>
+  </si>
+  <si>
     <t>45:39</t>
   </si>
   <si>
@@ -2991,6 +3438,9 @@
     <t>22:54</t>
   </si>
   <si>
+    <t>14:37</t>
+  </si>
+  <si>
     <t>1:08:04</t>
   </si>
   <si>
@@ -3063,6 +3513,9 @@
     <t>19:23</t>
   </si>
   <si>
+    <t>5:05</t>
+  </si>
+  <si>
     <t>9:48</t>
   </si>
   <si>
@@ -3117,6 +3570,9 @@
     <t>30:19</t>
   </si>
   <si>
+    <t>43:50</t>
+  </si>
+  <si>
     <t>41:25</t>
   </si>
   <si>
@@ -3126,6 +3582,9 @@
     <t>4:23</t>
   </si>
   <si>
+    <t>11:55</t>
+  </si>
+  <si>
     <t>38:58</t>
   </si>
   <si>
@@ -3135,9 +3594,15 @@
     <t>4:32</t>
   </si>
   <si>
+    <t>4:44</t>
+  </si>
+  <si>
     <t>3:08</t>
   </si>
   <si>
+    <t>28:05</t>
+  </si>
+  <si>
     <t>16:16</t>
   </si>
   <si>
@@ -3195,6 +3660,9 @@
     <t>17:14</t>
   </si>
   <si>
+    <t>8:36</t>
+  </si>
+  <si>
     <t>10:45</t>
   </si>
   <si>
@@ -3228,6 +3696,9 @@
     <t>13:40</t>
   </si>
   <si>
+    <t>16:28</t>
+  </si>
+  <si>
     <t>4:17</t>
   </si>
   <si>
@@ -3264,12 +3735,18 @@
     <t>7:45</t>
   </si>
   <si>
+    <t>15:02</t>
+  </si>
+  <si>
     <t>4:12</t>
   </si>
   <si>
     <t>3:25</t>
   </si>
   <si>
+    <t>9:48</t>
+  </si>
+  <si>
     <t>29:50</t>
   </si>
   <si>
@@ -3282,12 +3759,18 @@
     <t>7:26</t>
   </si>
   <si>
+    <t>19:14</t>
+  </si>
+  <si>
     <t>9:29</t>
   </si>
   <si>
     <t>6:44</t>
   </si>
   <si>
+    <t>10:53</t>
+  </si>
+  <si>
     <t>1:37</t>
   </si>
   <si>
@@ -3306,6 +3789,9 @@
     <t>1:14</t>
   </si>
   <si>
+    <t>1:37</t>
+  </si>
+  <si>
     <t>1:49</t>
   </si>
   <si>
@@ -3318,7 +3804,13 @@
     <t>0:34</t>
   </si>
   <si>
+    <t>15:56</t>
+  </si>
+  <si>
     <t>1:48</t>
+  </si>
+  <si>
+    <t>1:03</t>
   </si>
   <si>
     <t>0:43</t>
@@ -3363,7 +3855,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -3402,35 +3894,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V370"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="true"/>
-    <col min="2" max="2" width="88.7109375" customWidth="true"/>
-    <col min="3" max="3" width="17.42578125" customWidth="true"/>
-    <col min="4" max="4" width="8.140625" customWidth="true"/>
-    <col min="5" max="5" width="18.140625" customWidth="true"/>
-    <col min="6" max="6" width="11.28515625" customWidth="true"/>
-    <col min="7" max="7" width="23.42578125" customWidth="true"/>
-    <col min="8" max="8" width="11.85546875" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
-    <col min="10" max="10" width="12.85546875" customWidth="true"/>
-    <col min="11" max="11" width="14.140625" customWidth="true"/>
-    <col min="12" max="12" width="14.85546875" customWidth="true"/>
-    <col min="13" max="13" width="18" customWidth="true"/>
-    <col min="14" max="14" width="30.42578125" customWidth="true"/>
-    <col min="15" max="15" width="26.140625" customWidth="true"/>
-    <col min="16" max="16" width="28.42578125" customWidth="true"/>
-    <col min="17" max="17" width="20.140625" customWidth="true"/>
-    <col min="18" max="18" width="30.7109375" customWidth="true"/>
-    <col min="19" max="19" width="24.85546875" customWidth="true"/>
-    <col min="20" max="20" width="27.140625" customWidth="true"/>
-    <col min="21" max="21" width="41" customWidth="true"/>
-    <col min="22" max="22" width="27.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.44140625" customWidth="true"/>
+    <col min="2" max="2" width="83.2578125" customWidth="true"/>
+    <col min="3" max="3" width="15.984375" customWidth="true"/>
+    <col min="4" max="4" width="8.16796875" customWidth="true"/>
+    <col min="5" max="5" width="17.44140625" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="7" max="7" width="22.07421875" customWidth="true"/>
+    <col min="8" max="8" width="11.2578125" customWidth="true"/>
+    <col min="9" max="9" width="29.34765625" customWidth="true"/>
+    <col min="10" max="10" width="11.984375" customWidth="true"/>
+    <col min="11" max="11" width="13.2578125" customWidth="true"/>
+    <col min="12" max="12" width="13.8046875" customWidth="true"/>
+    <col min="13" max="13" width="16.89453125" customWidth="true"/>
+    <col min="14" max="14" width="28.2578125" customWidth="true"/>
+    <col min="15" max="15" width="24.16796875" customWidth="true"/>
+    <col min="16" max="16" width="26.2578125" customWidth="true"/>
+    <col min="17" max="17" width="18.62109375" customWidth="true"/>
+    <col min="18" max="18" width="29.07421875" customWidth="true"/>
+    <col min="19" max="19" width="23.34765625" customWidth="true"/>
+    <col min="20" max="20" width="25.44140625" customWidth="true"/>
+    <col min="21" max="21" width="38.44140625" customWidth="true"/>
+    <col min="22" max="22" width="25.44140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3465,40 +3954,40 @@
         <v>747</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>750</v>
+        <v>898</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1104</v>
+        <v>1268</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1105</v>
+        <v>1269</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1106</v>
+        <v>1270</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1107</v>
+        <v>1271</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1108</v>
+        <v>1272</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1109</v>
+        <v>1273</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1110</v>
+        <v>1274</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1111</v>
+        <v>1275</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1112</v>
+        <v>1276</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1113</v>
+        <v>1277</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1114</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="2">
@@ -3533,7 +4022,7 @@
         <v>748</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>751</v>
+        <v>899</v>
       </c>
       <c r="L2" s="0">
         <v>1442</v>
@@ -3601,7 +4090,7 @@
         <v>748</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>752</v>
+        <v>900</v>
       </c>
       <c r="L3" s="0">
         <v>1728</v>
@@ -3669,7 +4158,7 @@
         <v>749</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>753</v>
+        <v>901</v>
       </c>
       <c r="L4" s="0">
         <v>2009</v>
@@ -3734,10 +4223,10 @@
         <v>7.1399999999999997</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>754</v>
+        <v>902</v>
       </c>
       <c r="L5" s="0">
         <v>896</v>
@@ -3802,10 +4291,10 @@
         <v>5.1900000000000004</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>755</v>
+        <v>903</v>
       </c>
       <c r="L6" s="0">
         <v>2050</v>
@@ -3870,10 +4359,10 @@
         <v>3.1499999999999999</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>756</v>
+        <v>904</v>
       </c>
       <c r="L7" s="0">
         <v>2089</v>
@@ -3938,10 +4427,10 @@
         <v>2.9700000000000002</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>757</v>
+        <v>905</v>
       </c>
       <c r="L8" s="0">
         <v>1698</v>
@@ -4006,10 +4495,10 @@
         <v>4.1600000000000001</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>758</v>
+        <v>906</v>
       </c>
       <c r="L9" s="0">
         <v>784</v>
@@ -4074,10 +4563,10 @@
         <v>4.9199999999999999</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>759</v>
+        <v>907</v>
       </c>
       <c r="L10" s="0">
         <v>1232</v>
@@ -4142,10 +4631,10 @@
         <v>6.7400000000000002</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>760</v>
+        <v>908</v>
       </c>
       <c r="L11" s="0">
         <v>1742</v>
@@ -4210,10 +4699,10 @@
         <v>3.79</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>761</v>
+        <v>909</v>
       </c>
       <c r="L12" s="0">
         <v>2094</v>
@@ -4278,10 +4767,10 @@
         <v>7.9800000000000004</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>762</v>
+        <v>910</v>
       </c>
       <c r="L13" s="0">
         <v>2020</v>
@@ -4346,10 +4835,10 @@
         <v>5.1500000000000004</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>763</v>
+        <v>911</v>
       </c>
       <c r="L14" s="0">
         <v>2102</v>
@@ -4414,10 +4903,10 @@
         <v>5.9400000000000004</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>764</v>
+        <v>912</v>
       </c>
       <c r="L15" s="0">
         <v>1728</v>
@@ -4482,10 +4971,10 @@
         <v>8.3499999999999996</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>765</v>
+        <v>913</v>
       </c>
       <c r="L16" s="0">
         <v>2390</v>
@@ -4550,10 +5039,10 @@
         <v>4.0099999999999998</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>766</v>
+        <v>914</v>
       </c>
       <c r="L17" s="0">
         <v>1876</v>
@@ -4618,10 +5107,10 @@
         <v>8.6600000000000001</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>767</v>
+        <v>915</v>
       </c>
       <c r="L18" s="0">
         <v>910</v>
@@ -4686,10 +5175,10 @@
         <v>4.1200000000000001</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>768</v>
+        <v>916</v>
       </c>
       <c r="L19" s="0">
         <v>1728</v>
@@ -4754,10 +5243,10 @@
         <v>5.0700000000000003</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>769</v>
+        <v>917</v>
       </c>
       <c r="L20" s="0">
         <v>2110</v>
@@ -4822,10 +5311,10 @@
         <v>3.6099999999999999</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>770</v>
+        <v>918</v>
       </c>
       <c r="L21" s="0">
         <v>2044</v>
@@ -4890,10 +5379,10 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>771</v>
+        <v>919</v>
       </c>
       <c r="L22" s="0">
         <v>2104</v>
@@ -4958,10 +5447,10 @@
         <v>4.4299999999999997</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>772</v>
+        <v>920</v>
       </c>
       <c r="L23" s="0">
         <v>2072</v>
@@ -5026,10 +5515,10 @@
         <v>4.2599999999999998</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>773</v>
+        <v>921</v>
       </c>
       <c r="L24" s="0">
         <v>2141</v>
@@ -5094,10 +5583,10 @@
         <v>3.6000000000000001</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>774</v>
+        <v>922</v>
       </c>
       <c r="L25" s="0">
         <v>1875</v>
@@ -5162,10 +5651,10 @@
         <v>5.71</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>775</v>
+        <v>923</v>
       </c>
       <c r="L26" s="0">
         <v>2065</v>
@@ -5230,10 +5719,10 @@
         <v>7.3700000000000001</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>776</v>
+        <v>924</v>
       </c>
       <c r="L27" s="0">
         <v>2118</v>
@@ -5298,10 +5787,10 @@
         <v>7.9400000000000004</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>777</v>
+        <v>925</v>
       </c>
       <c r="L28" s="0">
         <v>2390</v>
@@ -5366,10 +5855,10 @@
         <v>6.1900000000000004</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>778</v>
+        <v>926</v>
       </c>
       <c r="L29" s="0">
         <v>2113</v>
@@ -5434,10 +5923,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>779</v>
+        <v>927</v>
       </c>
       <c r="L30" s="0">
         <v>2107</v>
@@ -5502,10 +5991,10 @@
         <v>3.7000000000000002</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>780</v>
+        <v>928</v>
       </c>
       <c r="L31" s="0">
         <v>1918</v>
@@ -5570,10 +6059,10 @@
         <v>5</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>781</v>
+        <v>929</v>
       </c>
       <c r="L32" s="0">
         <v>2066</v>
@@ -5638,10 +6127,10 @@
         <v>10.359999999999999</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>782</v>
+        <v>930</v>
       </c>
       <c r="L33" s="0">
         <v>777</v>
@@ -5706,10 +6195,10 @@
         <v>7.0700000000000003</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>783</v>
+        <v>931</v>
       </c>
       <c r="L34" s="0">
         <v>2065</v>
@@ -5774,10 +6263,10 @@
         <v>3.9300000000000002</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>784</v>
+        <v>932</v>
       </c>
       <c r="L35" s="0">
         <v>2064</v>
@@ -5842,10 +6331,10 @@
         <v>6.0499999999999998</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>785</v>
+        <v>933</v>
       </c>
       <c r="L36" s="0">
         <v>2086</v>
@@ -5910,10 +6399,10 @@
         <v>4.5700000000000003</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>786</v>
+        <v>934</v>
       </c>
       <c r="L37" s="0">
         <v>1344</v>
@@ -5978,10 +6467,10 @@
         <v>9.1699999999999999</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>787</v>
+        <v>935</v>
       </c>
       <c r="L38" s="0">
         <v>2136</v>
@@ -6046,10 +6535,10 @@
         <v>5.8700000000000001</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>788</v>
+        <v>936</v>
       </c>
       <c r="L39" s="0">
         <v>1449</v>
@@ -6114,10 +6603,10 @@
         <v>9.9199999999999999</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>789</v>
+        <v>937</v>
       </c>
       <c r="L40" s="0">
         <v>1008</v>
@@ -6182,10 +6671,10 @@
         <v>5.4299999999999997</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>790</v>
+        <v>938</v>
       </c>
       <c r="L41" s="0">
         <v>1435</v>
@@ -6250,10 +6739,10 @@
         <v>3.6299999999999999</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>791</v>
+        <v>939</v>
       </c>
       <c r="L42" s="0">
         <v>2121</v>
@@ -6318,10 +6807,10 @@
         <v>8.6699999999999999</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>792</v>
+        <v>940</v>
       </c>
       <c r="L43" s="0">
         <v>497</v>
@@ -6386,10 +6875,10 @@
         <v>3.5699999999999998</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>793</v>
+        <v>941</v>
       </c>
       <c r="L44" s="0">
         <v>1878</v>
@@ -6454,10 +6943,10 @@
         <v>5.5999999999999996</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>794</v>
+        <v>942</v>
       </c>
       <c r="L45" s="0">
         <v>2133</v>
@@ -6522,10 +7011,10 @@
         <v>4.7400000000000002</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>795</v>
+        <v>943</v>
       </c>
       <c r="L46" s="0">
         <v>1493</v>
@@ -6590,10 +7079,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>796</v>
+        <v>944</v>
       </c>
       <c r="L47" s="0">
         <v>1099</v>
@@ -6658,10 +7147,10 @@
         <v>4.0800000000000001</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>797</v>
+        <v>945</v>
       </c>
       <c r="L48" s="0">
         <v>1619</v>
@@ -6726,10 +7215,10 @@
         <v>6.1900000000000004</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>798</v>
+        <v>946</v>
       </c>
       <c r="L49" s="0">
         <v>2105</v>
@@ -6794,10 +7283,10 @@
         <v>4.7199999999999998</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>799</v>
+        <v>947</v>
       </c>
       <c r="L50" s="0">
         <v>1722</v>
@@ -6862,10 +7351,10 @@
         <v>3.21</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>800</v>
+        <v>948</v>
       </c>
       <c r="L51" s="0">
         <v>434</v>
@@ -6930,10 +7419,10 @@
         <v>3.6099999999999999</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>801</v>
+        <v>949</v>
       </c>
       <c r="L52" s="0">
         <v>2125</v>
@@ -6998,10 +7487,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>802</v>
+        <v>950</v>
       </c>
       <c r="L53" s="0">
         <v>1694</v>
@@ -7066,10 +7555,10 @@
         <v>3.8199999999999998</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>803</v>
+        <v>951</v>
       </c>
       <c r="L54" s="0">
         <v>1559</v>
@@ -7134,10 +7623,10 @@
         <v>3.4199999999999999</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>804</v>
+        <v>952</v>
       </c>
       <c r="L55" s="0">
         <v>1612</v>
@@ -7202,10 +7691,10 @@
         <v>8.0899999999999999</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>805</v>
+        <v>953</v>
       </c>
       <c r="L56" s="0">
         <v>1651</v>
@@ -7270,10 +7759,10 @@
         <v>3.46</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>806</v>
+        <v>954</v>
       </c>
       <c r="L57" s="0">
         <v>1621</v>
@@ -7338,10 +7827,10 @@
         <v>1.05</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>807</v>
+        <v>955</v>
       </c>
       <c r="L58" s="0">
         <v>1057</v>
@@ -7406,10 +7895,10 @@
         <v>5.1200000000000001</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>808</v>
+        <v>956</v>
       </c>
       <c r="L59" s="0">
         <v>2101</v>
@@ -7474,10 +7963,10 @@
         <v>5.0099999999999998</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>809</v>
+        <v>957</v>
       </c>
       <c r="L60" s="0">
         <v>1531</v>
@@ -7542,10 +8031,10 @@
         <v>6.1699999999999999</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>810</v>
+        <v>958</v>
       </c>
       <c r="L61" s="0">
         <v>2084</v>
@@ -7610,10 +8099,10 @@
         <v>4.8700000000000001</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>811</v>
+        <v>959</v>
       </c>
       <c r="L62" s="0">
         <v>1534</v>
@@ -7678,10 +8167,10 @@
         <v>7.46</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>812</v>
+        <v>960</v>
       </c>
       <c r="L63" s="0">
         <v>336</v>
@@ -7746,10 +8235,10 @@
         <v>2.96</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>813</v>
+        <v>961</v>
       </c>
       <c r="L64" s="0">
         <v>1686</v>
@@ -7814,10 +8303,10 @@
         <v>6.5700000000000003</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>814</v>
+        <v>962</v>
       </c>
       <c r="L65" s="0">
         <v>574</v>
@@ -7882,10 +8371,10 @@
         <v>5.4100000000000001</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>815</v>
+        <v>963</v>
       </c>
       <c r="L66" s="0">
         <v>693</v>
@@ -7950,10 +8439,10 @@
         <v>4</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>816</v>
+        <v>964</v>
       </c>
       <c r="L67" s="0">
         <v>1197</v>
@@ -8018,10 +8507,10 @@
         <v>3.3300000000000001</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>817</v>
+        <v>965</v>
       </c>
       <c r="L68" s="0">
         <v>1869</v>
@@ -8086,10 +8575,10 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>748</v>
+        <v>774</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>818</v>
+        <v>966</v>
       </c>
       <c r="L69" s="0">
         <v>1573</v>
@@ -8154,10 +8643,10 @@
         <v>3.46</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>819</v>
+        <v>967</v>
       </c>
       <c r="L70" s="0">
         <v>1917</v>
@@ -8222,10 +8711,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>820</v>
+        <v>968</v>
       </c>
       <c r="L71" s="0">
         <v>1864</v>
@@ -8290,10 +8779,10 @@
         <v>5.1399999999999997</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>764</v>
+        <v>969</v>
       </c>
       <c r="L72" s="0">
         <v>1742</v>
@@ -8358,10 +8847,10 @@
         <v>3</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>821</v>
+        <v>970</v>
       </c>
       <c r="L73" s="0">
         <v>2020</v>
@@ -8426,10 +8915,10 @@
         <v>2.98</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>822</v>
+        <v>971</v>
       </c>
       <c r="L74" s="0">
         <v>1889</v>
@@ -8494,10 +8983,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>823</v>
+        <v>972</v>
       </c>
       <c r="L75" s="0">
         <v>1889</v>
@@ -8562,10 +9051,10 @@
         <v>5.4299999999999997</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>824</v>
+        <v>973</v>
       </c>
       <c r="L76" s="0">
         <v>1302</v>
@@ -8630,10 +9119,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>825</v>
+        <v>974</v>
       </c>
       <c r="L77" s="0">
         <v>1702</v>
@@ -8698,10 +9187,10 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>826</v>
+        <v>975</v>
       </c>
       <c r="L78" s="0">
         <v>1358</v>
@@ -8766,10 +9255,10 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>827</v>
+        <v>976</v>
       </c>
       <c r="L79" s="0">
         <v>2016</v>
@@ -8834,10 +9323,10 @@
         <v>3</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>828</v>
+        <v>977</v>
       </c>
       <c r="L80" s="0">
         <v>2110</v>
@@ -8902,10 +9391,10 @@
         <v>3.7200000000000002</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>748</v>
+        <v>782</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>829</v>
+        <v>978</v>
       </c>
       <c r="L81" s="0">
         <v>420</v>
@@ -8970,10 +9459,10 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>748</v>
+        <v>782</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>830</v>
+        <v>979</v>
       </c>
       <c r="L82" s="0">
         <v>1414</v>
@@ -9038,10 +9527,10 @@
         <v>6.0800000000000001</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>831</v>
+        <v>980</v>
       </c>
       <c r="L83" s="0">
         <v>2061</v>
@@ -9106,10 +9595,10 @@
         <v>4.7199999999999998</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>832</v>
+        <v>981</v>
       </c>
       <c r="L84" s="0">
         <v>2058</v>
@@ -9174,10 +9663,10 @@
         <v>4.4500000000000002</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>833</v>
+        <v>982</v>
       </c>
       <c r="L85" s="0">
         <v>2061</v>
@@ -9242,10 +9731,10 @@
         <v>6.0199999999999996</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>748</v>
+        <v>784</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>834</v>
+        <v>983</v>
       </c>
       <c r="L86" s="0">
         <v>1113</v>
@@ -9310,10 +9799,10 @@
         <v>4.4699999999999998</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>835</v>
+        <v>984</v>
       </c>
       <c r="L87" s="0">
         <v>798</v>
@@ -9378,10 +9867,10 @@
         <v>6.7199999999999998</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>748</v>
+        <v>786</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>836</v>
+        <v>985</v>
       </c>
       <c r="L88" s="0">
         <v>1050</v>
@@ -9446,10 +9935,10 @@
         <v>4.0899999999999999</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>837</v>
+        <v>986</v>
       </c>
       <c r="L89" s="0">
         <v>2069</v>
@@ -9514,10 +10003,10 @@
         <v>3.4300000000000002</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>838</v>
+        <v>987</v>
       </c>
       <c r="L90" s="0">
         <v>1549</v>
@@ -9582,10 +10071,10 @@
         <v>3.2799999999999998</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>839</v>
+        <v>988</v>
       </c>
       <c r="L91" s="0">
         <v>1469</v>
@@ -9650,10 +10139,10 @@
         <v>5.3799999999999999</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>840</v>
+        <v>989</v>
       </c>
       <c r="L92" s="0">
         <v>2064</v>
@@ -9718,10 +10207,10 @@
         <v>3.7999999999999998</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>841</v>
+        <v>990</v>
       </c>
       <c r="L93" s="0">
         <v>1371</v>
@@ -9786,10 +10275,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>842</v>
+        <v>991</v>
       </c>
       <c r="L94" s="0">
         <v>2056</v>
@@ -9854,10 +10343,10 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>843</v>
+        <v>992</v>
       </c>
       <c r="L95" s="0">
         <v>2060</v>
@@ -9922,10 +10411,10 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>844</v>
+        <v>993</v>
       </c>
       <c r="L96" s="0">
         <v>1500</v>
@@ -9990,10 +10479,10 @@
         <v>3.5</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>845</v>
+        <v>994</v>
       </c>
       <c r="L97" s="0">
         <v>1148</v>
@@ -10058,10 +10547,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>846</v>
+        <v>995</v>
       </c>
       <c r="L98" s="0">
         <v>1035</v>
@@ -10126,10 +10615,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>847</v>
+        <v>996</v>
       </c>
       <c r="L99" s="0">
         <v>1503</v>
@@ -10194,10 +10683,10 @@
         <v>7.2199999999999998</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>748</v>
+        <v>788</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>848</v>
+        <v>997</v>
       </c>
       <c r="L100" s="0">
         <v>2132</v>
@@ -10262,10 +10751,10 @@
         <v>2.8500000000000001</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>749</v>
+        <v>789</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>849</v>
+        <v>998</v>
       </c>
       <c r="L101" s="0">
         <v>2057</v>
@@ -10330,10 +10819,10 @@
         <v>6.8600000000000003</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>748</v>
+        <v>790</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>850</v>
+        <v>999</v>
       </c>
       <c r="L102" s="0">
         <v>1239</v>
@@ -10398,10 +10887,10 @@
         <v>3.5499999999999998</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>851</v>
+        <v>1000</v>
       </c>
       <c r="L103" s="0">
         <v>1554</v>
@@ -10466,10 +10955,10 @@
         <v>5.9900000000000002</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>852</v>
+        <v>1001</v>
       </c>
       <c r="L104" s="0">
         <v>1853</v>
@@ -10534,10 +11023,10 @@
         <v>3.8100000000000001</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>853</v>
+        <v>1002</v>
       </c>
       <c r="L105" s="0">
         <v>1330</v>
@@ -10602,10 +11091,10 @@
         <v>4.3700000000000001</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>854</v>
+        <v>1003</v>
       </c>
       <c r="L106" s="0">
         <v>532</v>
@@ -10670,10 +11159,10 @@
         <v>2.52</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>855</v>
+        <v>1004</v>
       </c>
       <c r="L107" s="0">
         <v>2006</v>
@@ -10738,10 +11227,10 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>856</v>
+        <v>1005</v>
       </c>
       <c r="L108" s="0">
         <v>1865</v>
@@ -10806,10 +11295,10 @@
         <v>3.21</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>857</v>
+        <v>1006</v>
       </c>
       <c r="L109" s="0">
         <v>1897</v>
@@ -10874,10 +11363,10 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>858</v>
+        <v>1007</v>
       </c>
       <c r="L110" s="0">
         <v>805</v>
@@ -10942,10 +11431,10 @@
         <v>5.8399999999999999</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>859</v>
+        <v>1008</v>
       </c>
       <c r="L111" s="0">
         <v>2390</v>
@@ -11010,10 +11499,10 @@
         <v>3.52</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>748</v>
+        <v>794</v>
       </c>
       <c r="K112" s="0" t="s">
-        <v>860</v>
+        <v>1009</v>
       </c>
       <c r="L112" s="0">
         <v>1724</v>
@@ -11078,10 +11567,10 @@
         <v>6.1799999999999997</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>861</v>
+        <v>1010</v>
       </c>
       <c r="L113" s="0">
         <v>2268</v>
@@ -11146,10 +11635,10 @@
         <v>2.6299999999999999</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>862</v>
+        <v>1011</v>
       </c>
       <c r="L114" s="0">
         <v>2047</v>
@@ -11214,10 +11703,10 @@
         <v>4.4199999999999999</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>863</v>
+        <v>1012</v>
       </c>
       <c r="L115" s="0">
         <v>1498</v>
@@ -11282,10 +11771,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>864</v>
+        <v>1013</v>
       </c>
       <c r="L116" s="0">
         <v>1509</v>
@@ -11350,10 +11839,10 @@
         <v>3.8399999999999999</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>865</v>
+        <v>1014</v>
       </c>
       <c r="L117" s="0">
         <v>1521</v>
@@ -11418,10 +11907,10 @@
         <v>3.96</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>866</v>
+        <v>1015</v>
       </c>
       <c r="L118" s="0">
         <v>1428</v>
@@ -11486,10 +11975,10 @@
         <v>6.8200000000000003</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>867</v>
+        <v>1016</v>
       </c>
       <c r="L119" s="0">
         <v>2260</v>
@@ -11554,10 +12043,10 @@
         <v>2.6000000000000001</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>868</v>
+        <v>1017</v>
       </c>
       <c r="L120" s="0">
         <v>1885</v>
@@ -11622,10 +12111,10 @@
         <v>3.6400000000000001</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>869</v>
+        <v>1018</v>
       </c>
       <c r="L121" s="0">
         <v>1176</v>
@@ -11690,10 +12179,10 @@
         <v>3.2200000000000002</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K122" s="0" t="s">
-        <v>870</v>
+        <v>1019</v>
       </c>
       <c r="L122" s="0">
         <v>2023</v>
@@ -11758,10 +12247,10 @@
         <v>2.7799999999999998</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K123" s="0" t="s">
-        <v>871</v>
+        <v>1020</v>
       </c>
       <c r="L123" s="0">
         <v>1884</v>
@@ -11826,10 +12315,10 @@
         <v>3.8900000000000001</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>872</v>
+        <v>1021</v>
       </c>
       <c r="L124" s="0">
         <v>1517</v>
@@ -11894,10 +12383,10 @@
         <v>2.1400000000000001</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>873</v>
+        <v>1022</v>
       </c>
       <c r="L125" s="0">
         <v>1281</v>
@@ -11962,10 +12451,10 @@
         <v>2.75</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>874</v>
+        <v>1023</v>
       </c>
       <c r="L126" s="0">
         <v>1913</v>
@@ -12030,10 +12519,10 @@
         <v>1.3799999999999999</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>875</v>
+        <v>1024</v>
       </c>
       <c r="L127" s="0">
         <v>161</v>
@@ -12098,10 +12587,10 @@
         <v>3.21</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="K128" s="0" t="s">
-        <v>876</v>
+        <v>1025</v>
       </c>
       <c r="L128" s="0">
         <v>1421</v>
@@ -12166,10 +12655,10 @@
         <v>2.5600000000000001</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>877</v>
+        <v>1026</v>
       </c>
       <c r="L129" s="0">
         <v>2017</v>
@@ -12234,10 +12723,10 @@
         <v>4.1799999999999997</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="K130" s="0" t="s">
-        <v>878</v>
+        <v>1027</v>
       </c>
       <c r="L130" s="0">
         <v>1728</v>
@@ -12302,10 +12791,10 @@
         <v>3.02</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>879</v>
+        <v>1028</v>
       </c>
       <c r="L131" s="0">
         <v>1902</v>
@@ -12370,10 +12859,10 @@
         <v>2.71</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K132" s="0" t="s">
-        <v>880</v>
+        <v>1029</v>
       </c>
       <c r="L132" s="0">
         <v>1554</v>
@@ -12438,10 +12927,10 @@
         <v>2.52</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>881</v>
+        <v>1030</v>
       </c>
       <c r="L133" s="0">
         <v>1869</v>
@@ -12506,10 +12995,10 @@
         <v>3.6899999999999999</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K134" s="0" t="s">
-        <v>882</v>
+        <v>1031</v>
       </c>
       <c r="L134" s="0">
         <v>1526</v>
@@ -12574,10 +13063,10 @@
         <v>3.3399999999999999</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>883</v>
+        <v>1032</v>
       </c>
       <c r="L135" s="0">
         <v>1506</v>
@@ -12642,10 +13131,10 @@
         <v>3.5600000000000001</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>884</v>
+        <v>1033</v>
       </c>
       <c r="L136" s="0">
         <v>1183</v>
@@ -12710,10 +13199,10 @@
         <v>3.0899999999999999</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>885</v>
+        <v>1034</v>
       </c>
       <c r="L137" s="0">
         <v>2056</v>
@@ -12778,10 +13267,10 @@
         <v>3.0899999999999999</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>886</v>
+        <v>1035</v>
       </c>
       <c r="L138" s="0">
         <v>1267</v>
@@ -12846,10 +13335,10 @@
         <v>4.6600000000000001</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>748</v>
+        <v>798</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="L139" s="0">
         <v>735</v>
@@ -12914,10 +13403,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>748</v>
+        <v>798</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>888</v>
+        <v>1037</v>
       </c>
       <c r="L140" s="0">
         <v>1736</v>
@@ -12982,10 +13471,10 @@
         <v>3.7200000000000002</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>889</v>
+        <v>1038</v>
       </c>
       <c r="L141" s="0">
         <v>2119</v>
@@ -13050,10 +13539,10 @@
         <v>2.9900000000000002</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>748</v>
+        <v>800</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>890</v>
+        <v>1039</v>
       </c>
       <c r="L142" s="0">
         <v>1463</v>
@@ -13118,10 +13607,10 @@
         <v>3.1800000000000002</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>749</v>
+        <v>801</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>891</v>
+        <v>1040</v>
       </c>
       <c r="L143" s="0">
         <v>1481</v>
@@ -13186,10 +13675,10 @@
         <v>3.5600000000000001</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>749</v>
+        <v>801</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>892</v>
+        <v>1041</v>
       </c>
       <c r="L144" s="0">
         <v>875</v>
@@ -13254,10 +13743,10 @@
         <v>4.3700000000000001</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>749</v>
+        <v>801</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>893</v>
+        <v>1042</v>
       </c>
       <c r="L145" s="0">
         <v>1739</v>
@@ -13322,10 +13811,10 @@
         <v>1.48</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>748</v>
+        <v>802</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>894</v>
+        <v>1043</v>
       </c>
       <c r="L146" s="0">
         <v>770</v>
@@ -13390,10 +13879,10 @@
         <v>2.3999999999999999</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>749</v>
+        <v>803</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>895</v>
+        <v>1044</v>
       </c>
       <c r="L147" s="0">
         <v>1365</v>
@@ -13458,10 +13947,10 @@
         <v>2.6200000000000001</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>749</v>
+        <v>803</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>896</v>
+        <v>1045</v>
       </c>
       <c r="L148" s="0">
         <v>2022</v>
@@ -13526,10 +14015,10 @@
         <v>6.1200000000000001</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>748</v>
+        <v>804</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>897</v>
+        <v>1046</v>
       </c>
       <c r="L149" s="0">
         <v>1106</v>
@@ -13594,10 +14083,10 @@
         <v>3.8599999999999999</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>749</v>
+        <v>805</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>898</v>
+        <v>1047</v>
       </c>
       <c r="L150" s="0">
         <v>1029</v>
@@ -13662,10 +14151,10 @@
         <v>2.1899999999999999</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>748</v>
+        <v>806</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>899</v>
+        <v>1048</v>
       </c>
       <c r="L151" s="0">
         <v>819</v>
@@ -13730,10 +14219,10 @@
         <v>1.79</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>900</v>
+        <v>1049</v>
       </c>
       <c r="L152" s="0">
         <v>1885</v>
@@ -13798,10 +14287,10 @@
         <v>4.9900000000000002</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>901</v>
+        <v>1050</v>
       </c>
       <c r="L153" s="0">
         <v>1495</v>
@@ -13866,10 +14355,10 @@
         <v>3.79</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>902</v>
+        <v>1051</v>
       </c>
       <c r="L154" s="0">
         <v>1498</v>
@@ -13934,10 +14423,10 @@
         <v>2.29</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="K155" s="0" t="s">
-        <v>903</v>
+        <v>1052</v>
       </c>
       <c r="L155" s="0">
         <v>1901</v>
@@ -14002,10 +14491,10 @@
         <v>3.75</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>748</v>
+        <v>808</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>904</v>
+        <v>1053</v>
       </c>
       <c r="L156" s="0">
         <v>1274</v>
@@ -14070,10 +14559,10 @@
         <v>2.1000000000000001</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>905</v>
+        <v>1054</v>
       </c>
       <c r="L157" s="0">
         <v>1912</v>
@@ -14138,10 +14627,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="K158" s="0" t="s">
-        <v>906</v>
+        <v>1055</v>
       </c>
       <c r="L158" s="0">
         <v>1909</v>
@@ -14206,10 +14695,10 @@
         <v>2.4399999999999999</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="K159" s="0" t="s">
-        <v>907</v>
+        <v>1056</v>
       </c>
       <c r="L159" s="0">
         <v>1541</v>
@@ -14274,10 +14763,10 @@
         <v>3.8100000000000001</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="K160" s="0" t="s">
-        <v>908</v>
+        <v>1057</v>
       </c>
       <c r="L160" s="0">
         <v>2262</v>
@@ -14342,10 +14831,10 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>748</v>
+        <v>810</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>909</v>
+        <v>1058</v>
       </c>
       <c r="L161" s="0">
         <v>1905</v>
@@ -14410,10 +14899,10 @@
         <v>7.46</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>910</v>
+        <v>1059</v>
       </c>
       <c r="L162" s="0">
         <v>1919</v>
@@ -14478,10 +14967,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>911</v>
+        <v>1060</v>
       </c>
       <c r="L163" s="0">
         <v>1400</v>
@@ -14546,10 +15035,10 @@
         <v>2.4399999999999999</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K164" s="0" t="s">
-        <v>912</v>
+        <v>1061</v>
       </c>
       <c r="L164" s="0">
         <v>2057</v>
@@ -14614,10 +15103,10 @@
         <v>3.6200000000000001</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>913</v>
+        <v>1062</v>
       </c>
       <c r="L165" s="0">
         <v>938</v>
@@ -14682,10 +15171,10 @@
         <v>2.1600000000000001</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K166" s="0" t="s">
-        <v>914</v>
+        <v>1063</v>
       </c>
       <c r="L166" s="0">
         <v>1911</v>
@@ -14750,10 +15239,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K167" s="0" t="s">
-        <v>915</v>
+        <v>1064</v>
       </c>
       <c r="L167" s="0">
         <v>1902</v>
@@ -14818,10 +15307,10 @@
         <v>3.3100000000000001</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K168" s="0" t="s">
-        <v>916</v>
+        <v>1065</v>
       </c>
       <c r="L168" s="0">
         <v>1162</v>
@@ -14886,10 +15375,10 @@
         <v>3.4300000000000002</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="K169" s="0" t="s">
-        <v>917</v>
+        <v>1066</v>
       </c>
       <c r="L169" s="0">
         <v>1141</v>
@@ -14954,10 +15443,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="K170" s="0" t="s">
-        <v>918</v>
+        <v>1067</v>
       </c>
       <c r="L170" s="0">
         <v>196</v>
@@ -15022,10 +15511,10 @@
         <v>3.75</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="K171" s="0" t="s">
-        <v>919</v>
+        <v>1068</v>
       </c>
       <c r="L171" s="0">
         <v>1714</v>
@@ -15090,10 +15579,10 @@
         <v>2.9100000000000001</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>920</v>
+        <v>1069</v>
       </c>
       <c r="L172" s="0">
         <v>980</v>
@@ -15158,10 +15647,10 @@
         <v>4.75</v>
       </c>
       <c r="J173" s="0" t="s">
-        <v>748</v>
+        <v>814</v>
       </c>
       <c r="K173" s="0" t="s">
-        <v>921</v>
+        <v>1070</v>
       </c>
       <c r="L173" s="0">
         <v>1667</v>
@@ -15226,10 +15715,10 @@
         <v>2.9300000000000002</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>749</v>
+        <v>815</v>
       </c>
       <c r="K174" s="0" t="s">
-        <v>922</v>
+        <v>1071</v>
       </c>
       <c r="L174" s="0">
         <v>1257</v>
@@ -15294,10 +15783,10 @@
         <v>3.2799999999999998</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>749</v>
+        <v>815</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>923</v>
+        <v>1072</v>
       </c>
       <c r="L175" s="0">
         <v>1742</v>
@@ -15362,10 +15851,10 @@
         <v>2.4199999999999999</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>749</v>
+        <v>815</v>
       </c>
       <c r="K176" s="0" t="s">
-        <v>924</v>
+        <v>1073</v>
       </c>
       <c r="L176" s="0">
         <v>959</v>
@@ -15430,10 +15919,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>748</v>
+        <v>816</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>925</v>
+        <v>1074</v>
       </c>
       <c r="L177" s="0">
         <v>2035</v>
@@ -15498,10 +15987,10 @@
         <v>2.9399999999999999</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>748</v>
+        <v>816</v>
       </c>
       <c r="K178" s="0" t="s">
-        <v>926</v>
+        <v>1075</v>
       </c>
       <c r="L178" s="0">
         <v>1351</v>
@@ -15566,10 +16055,10 @@
         <v>3.96</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>748</v>
+        <v>816</v>
       </c>
       <c r="K179" s="0" t="s">
-        <v>927</v>
+        <v>1076</v>
       </c>
       <c r="L179" s="0">
         <v>392</v>
@@ -15634,10 +16123,10 @@
         <v>2.7999999999999998</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>748</v>
+        <v>816</v>
       </c>
       <c r="K180" s="0" t="s">
-        <v>928</v>
+        <v>1077</v>
       </c>
       <c r="L180" s="0">
         <v>1288</v>
@@ -15702,10 +16191,10 @@
         <v>2.6800000000000002</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>749</v>
+        <v>817</v>
       </c>
       <c r="K181" s="0" t="s">
-        <v>929</v>
+        <v>1078</v>
       </c>
       <c r="L181" s="0">
         <v>1853</v>
@@ -15770,10 +16259,10 @@
         <v>3.1200000000000001</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>748</v>
+        <v>818</v>
       </c>
       <c r="K182" s="0" t="s">
-        <v>930</v>
+        <v>1079</v>
       </c>
       <c r="L182" s="0">
         <v>2049</v>
@@ -15838,10 +16327,10 @@
         <v>3.1200000000000001</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>749</v>
+        <v>819</v>
       </c>
       <c r="K183" s="0" t="s">
-        <v>931</v>
+        <v>1080</v>
       </c>
       <c r="L183" s="0">
         <v>1539</v>
@@ -15906,10 +16395,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>749</v>
+        <v>819</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>932</v>
+        <v>1081</v>
       </c>
       <c r="L184" s="0">
         <v>2065</v>
@@ -15974,10 +16463,10 @@
         <v>5.4400000000000004</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>748</v>
+        <v>820</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>933</v>
+        <v>1082</v>
       </c>
       <c r="L185" s="0">
         <v>2132</v>
@@ -16042,10 +16531,10 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>748</v>
+        <v>820</v>
       </c>
       <c r="K186" s="0" t="s">
-        <v>934</v>
+        <v>1083</v>
       </c>
       <c r="L186" s="0">
         <v>1246</v>
@@ -16110,10 +16599,10 @@
         <v>3.04</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>935</v>
+        <v>1084</v>
       </c>
       <c r="L187" s="0">
         <v>791</v>
@@ -16178,10 +16667,10 @@
         <v>2.21</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K188" s="0" t="s">
-        <v>936</v>
+        <v>1085</v>
       </c>
       <c r="L188" s="0">
         <v>1015</v>
@@ -16246,10 +16735,10 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>937</v>
+        <v>1086</v>
       </c>
       <c r="L189" s="0">
         <v>1309</v>
@@ -16314,10 +16803,10 @@
         <v>2.3799999999999999</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K190" s="0" t="s">
-        <v>938</v>
+        <v>1087</v>
       </c>
       <c r="L190" s="0">
         <v>1893</v>
@@ -16382,10 +16871,10 @@
         <v>3.1000000000000001</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K191" s="0" t="s">
-        <v>939</v>
+        <v>1088</v>
       </c>
       <c r="L191" s="0">
         <v>812</v>
@@ -16450,10 +16939,10 @@
         <v>2.8599999999999999</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>940</v>
+        <v>1089</v>
       </c>
       <c r="L192" s="0">
         <v>455</v>
@@ -16518,10 +17007,10 @@
         <v>2.8999999999999999</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K193" s="0" t="s">
-        <v>941</v>
+        <v>1090</v>
       </c>
       <c r="L193" s="0">
         <v>2065</v>
@@ -16586,10 +17075,10 @@
         <v>3.6400000000000001</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>748</v>
+        <v>822</v>
       </c>
       <c r="K194" s="0" t="s">
-        <v>942</v>
+        <v>1091</v>
       </c>
       <c r="L194" s="0">
         <v>763</v>
@@ -16654,10 +17143,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>748</v>
+        <v>822</v>
       </c>
       <c r="K195" s="0" t="s">
-        <v>943</v>
+        <v>1092</v>
       </c>
       <c r="L195" s="0">
         <v>1127</v>
@@ -16722,10 +17211,10 @@
         <v>2.77</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>749</v>
+        <v>823</v>
       </c>
       <c r="K196" s="0" t="s">
-        <v>944</v>
+        <v>1093</v>
       </c>
       <c r="L196" s="0">
         <v>1520</v>
@@ -16790,10 +17279,10 @@
         <v>4.0300000000000002</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>748</v>
+        <v>824</v>
       </c>
       <c r="K197" s="0" t="s">
-        <v>945</v>
+        <v>1094</v>
       </c>
       <c r="L197" s="0">
         <v>1092</v>
@@ -16858,10 +17347,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>748</v>
+        <v>824</v>
       </c>
       <c r="K198" s="0" t="s">
-        <v>946</v>
+        <v>1095</v>
       </c>
       <c r="L198" s="0">
         <v>854</v>
@@ -16926,10 +17415,10 @@
         <v>5.5599999999999996</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>749</v>
+        <v>825</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>947</v>
+        <v>1096</v>
       </c>
       <c r="L199" s="0">
         <v>2291</v>
@@ -16994,10 +17483,10 @@
         <v>2.3599999999999999</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>749</v>
+        <v>825</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>948</v>
+        <v>1097</v>
       </c>
       <c r="L200" s="0">
         <v>1169</v>
@@ -17062,10 +17551,10 @@
         <v>2.7799999999999998</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>749</v>
+        <v>825</v>
       </c>
       <c r="K201" s="0" t="s">
-        <v>949</v>
+        <v>1098</v>
       </c>
       <c r="L201" s="0">
         <v>567</v>
@@ -17130,10 +17619,10 @@
         <v>3.7999999999999998</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>748</v>
+        <v>826</v>
       </c>
       <c r="K202" s="0" t="s">
-        <v>950</v>
+        <v>1099</v>
       </c>
       <c r="L202" s="0">
         <v>119</v>
@@ -17198,10 +17687,10 @@
         <v>1.74</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>749</v>
+        <v>827</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>951</v>
+        <v>1100</v>
       </c>
       <c r="L203" s="0">
         <v>889</v>
@@ -17266,10 +17755,10 @@
         <v>1.9099999999999999</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>748</v>
+        <v>828</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>952</v>
+        <v>1101</v>
       </c>
       <c r="L204" s="0">
         <v>1407</v>
@@ -17334,10 +17823,10 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>748</v>
+        <v>828</v>
       </c>
       <c r="K205" s="0" t="s">
-        <v>953</v>
+        <v>1102</v>
       </c>
       <c r="L205" s="0">
         <v>518</v>
@@ -17402,10 +17891,10 @@
         <v>3.2400000000000002</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>749</v>
+        <v>829</v>
       </c>
       <c r="K206" s="0" t="s">
-        <v>954</v>
+        <v>1103</v>
       </c>
       <c r="L206" s="0">
         <v>154</v>
@@ -17470,10 +17959,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>748</v>
+        <v>830</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>955</v>
+        <v>1104</v>
       </c>
       <c r="L207" s="0">
         <v>840</v>
@@ -17538,10 +18027,10 @@
         <v>2.7599999999999998</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>749</v>
+        <v>831</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>956</v>
+        <v>1105</v>
       </c>
       <c r="L208" s="0">
         <v>441</v>
@@ -17606,10 +18095,10 @@
         <v>2.7599999999999998</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>748</v>
+        <v>832</v>
       </c>
       <c r="K209" s="0" t="s">
-        <v>957</v>
+        <v>1106</v>
       </c>
       <c r="L209" s="0">
         <v>1596</v>
@@ -17674,10 +18163,10 @@
         <v>3.04</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>749</v>
+        <v>833</v>
       </c>
       <c r="K210" s="0" t="s">
-        <v>958</v>
+        <v>1107</v>
       </c>
       <c r="L210" s="0">
         <v>1620</v>
@@ -17742,10 +18231,10 @@
         <v>1.51</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>749</v>
+        <v>833</v>
       </c>
       <c r="K211" s="0" t="s">
-        <v>959</v>
+        <v>1108</v>
       </c>
       <c r="L211" s="0">
         <v>1860</v>
@@ -17810,10 +18299,10 @@
         <v>1.8400000000000001</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>749</v>
+        <v>833</v>
       </c>
       <c r="K212" s="0" t="s">
-        <v>960</v>
+        <v>1109</v>
       </c>
       <c r="L212" s="0">
         <v>1252</v>
@@ -17878,10 +18367,10 @@
         <v>1.05</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>748</v>
+        <v>834</v>
       </c>
       <c r="K213" s="0" t="s">
-        <v>961</v>
+        <v>1110</v>
       </c>
       <c r="L213" s="0">
         <v>175</v>
@@ -17946,10 +18435,10 @@
         <v>2.7400000000000002</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>748</v>
+        <v>834</v>
       </c>
       <c r="K214" s="0" t="s">
-        <v>962</v>
+        <v>1111</v>
       </c>
       <c r="L214" s="0">
         <v>847</v>
@@ -18014,10 +18503,10 @@
         <v>4.0899999999999999</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>748</v>
+        <v>834</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>963</v>
+        <v>1112</v>
       </c>
       <c r="L215" s="0">
         <v>826</v>
@@ -18082,10 +18571,10 @@
         <v>2.3999999999999999</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>749</v>
+        <v>835</v>
       </c>
       <c r="K216" s="0" t="s">
-        <v>964</v>
+        <v>1113</v>
       </c>
       <c r="L216" s="0">
         <v>1379</v>
@@ -18150,10 +18639,10 @@
         <v>1.8</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>749</v>
+        <v>835</v>
       </c>
       <c r="K217" s="0" t="s">
-        <v>965</v>
+        <v>1114</v>
       </c>
       <c r="L217" s="0">
         <v>1755</v>
@@ -18218,10 +18707,10 @@
         <v>1.8600000000000001</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>749</v>
+        <v>835</v>
       </c>
       <c r="K218" s="0" t="s">
-        <v>966</v>
+        <v>1115</v>
       </c>
       <c r="L218" s="0">
         <v>1686</v>
@@ -18286,10 +18775,10 @@
         <v>1.47</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>748</v>
+        <v>836</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>967</v>
+        <v>1116</v>
       </c>
       <c r="L219" s="0">
         <v>546</v>
@@ -18354,10 +18843,10 @@
         <v>2.29</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>968</v>
+        <v>1117</v>
       </c>
       <c r="L220" s="0">
         <v>1386</v>
@@ -18422,10 +18911,10 @@
         <v>1.78</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>969</v>
+        <v>1118</v>
       </c>
       <c r="L221" s="0">
         <v>1661</v>
@@ -18490,10 +18979,10 @@
         <v>2.1200000000000001</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>970</v>
+        <v>1119</v>
       </c>
       <c r="L222" s="0">
         <v>1509</v>
@@ -18558,10 +19047,10 @@
         <v>1.74</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>971</v>
+        <v>1120</v>
       </c>
       <c r="L223" s="0">
         <v>924</v>
@@ -18626,10 +19115,10 @@
         <v>3.9100000000000001</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>748</v>
+        <v>838</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>972</v>
+        <v>1121</v>
       </c>
       <c r="L224" s="0">
         <v>2160</v>
@@ -18694,10 +19183,10 @@
         <v>2.4199999999999999</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>973</v>
+        <v>1122</v>
       </c>
       <c r="L225" s="0">
         <v>679</v>
@@ -18762,10 +19251,10 @@
         <v>2.1099999999999999</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>974</v>
+        <v>1123</v>
       </c>
       <c r="L226" s="0">
         <v>735</v>
@@ -18830,10 +19319,10 @@
         <v>2.0899999999999999</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="K227" s="0" t="s">
-        <v>975</v>
+        <v>1124</v>
       </c>
       <c r="L227" s="0">
         <v>686</v>
@@ -18898,10 +19387,10 @@
         <v>1.8</v>
       </c>
       <c r="J228" s="0" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="K228" s="0" t="s">
-        <v>976</v>
+        <v>1125</v>
       </c>
       <c r="L228" s="0">
         <v>973</v>
@@ -18966,10 +19455,10 @@
         <v>2.25</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>977</v>
+        <v>1126</v>
       </c>
       <c r="L229" s="0">
         <v>1881</v>
@@ -19034,10 +19523,10 @@
         <v>4.71</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>978</v>
+        <v>1127</v>
       </c>
       <c r="L230" s="0">
         <v>952</v>
@@ -19102,10 +19591,10 @@
         <v>1.99</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>979</v>
+        <v>1128</v>
       </c>
       <c r="L231" s="0">
         <v>1085</v>
@@ -19170,10 +19659,10 @@
         <v>2.5</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>980</v>
+        <v>1129</v>
       </c>
       <c r="L232" s="0">
         <v>405</v>
@@ -19238,10 +19727,10 @@
         <v>3.1699999999999999</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>748</v>
+        <v>842</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>981</v>
+        <v>1130</v>
       </c>
       <c r="L233" s="0">
         <v>1337</v>
@@ -19306,10 +19795,10 @@
         <v>1.45</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>749</v>
+        <v>843</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>982</v>
+        <v>1131</v>
       </c>
       <c r="L234" s="0">
         <v>994</v>
@@ -19374,10 +19863,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>748</v>
+        <v>844</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>983</v>
+        <v>1132</v>
       </c>
       <c r="L235" s="0">
         <v>2074</v>
@@ -19442,10 +19931,10 @@
         <v>1.3700000000000001</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>749</v>
+        <v>845</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>984</v>
+        <v>1133</v>
       </c>
       <c r="L236" s="0">
         <v>1001</v>
@@ -19510,10 +19999,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>748</v>
+        <v>846</v>
       </c>
       <c r="K237" s="0" t="s">
-        <v>985</v>
+        <v>1134</v>
       </c>
       <c r="L237" s="0">
         <v>987</v>
@@ -19578,10 +20067,10 @@
         <v>1.3700000000000001</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>749</v>
+        <v>847</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>986</v>
+        <v>1135</v>
       </c>
       <c r="L238" s="0">
         <v>861</v>
@@ -19646,10 +20135,10 @@
         <v>2.8999999999999999</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>987</v>
+        <v>1136</v>
       </c>
       <c r="L239" s="0">
         <v>2287</v>
@@ -19714,10 +20203,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>988</v>
+        <v>1137</v>
       </c>
       <c r="L240" s="0">
         <v>539</v>
@@ -19782,10 +20271,10 @@
         <v>2.48</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>989</v>
+        <v>1138</v>
       </c>
       <c r="L241" s="0">
         <v>945</v>
@@ -19850,10 +20339,10 @@
         <v>1.97</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>990</v>
+        <v>1139</v>
       </c>
       <c r="L242" s="0">
         <v>1218</v>
@@ -19918,10 +20407,10 @@
         <v>3.1499999999999999</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>991</v>
+        <v>1140</v>
       </c>
       <c r="L243" s="0">
         <v>287</v>
@@ -19986,10 +20475,10 @@
         <v>2.8900000000000001</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>947</v>
+        <v>1141</v>
       </c>
       <c r="L244" s="0">
         <v>2262</v>
@@ -20054,10 +20543,10 @@
         <v>1.73</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>992</v>
+        <v>1142</v>
       </c>
       <c r="L245" s="0">
         <v>658</v>
@@ -20122,10 +20611,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="K246" s="0" t="s">
-        <v>993</v>
+        <v>1143</v>
       </c>
       <c r="L246" s="0">
         <v>672</v>
@@ -20190,10 +20679,10 @@
         <v>2.6899999999999999</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>994</v>
+        <v>1144</v>
       </c>
       <c r="L247" s="0">
         <v>252</v>
@@ -20258,10 +20747,10 @@
         <v>2.9199999999999999</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>748</v>
+        <v>850</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>995</v>
+        <v>1145</v>
       </c>
       <c r="L248" s="0">
         <v>1295</v>
@@ -20326,10 +20815,10 @@
         <v>2.6099999999999999</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>748</v>
+        <v>850</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>996</v>
+        <v>1146</v>
       </c>
       <c r="L249" s="0">
         <v>936</v>
@@ -20394,10 +20883,10 @@
         <v>1.02</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>748</v>
+        <v>850</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>997</v>
+        <v>1147</v>
       </c>
       <c r="L250" s="0">
         <v>1078</v>
@@ -20462,10 +20951,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>748</v>
+        <v>850</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>998</v>
+        <v>1148</v>
       </c>
       <c r="L251" s="0">
         <v>903</v>
@@ -20530,10 +21019,10 @@
         <v>2.6099999999999999</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>749</v>
+        <v>851</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>999</v>
+        <v>1149</v>
       </c>
       <c r="L252" s="0">
         <v>2375</v>
@@ -20598,10 +21087,10 @@
         <v>1.04</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>748</v>
+        <v>852</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="L253" s="0">
         <v>721</v>
@@ -20666,10 +21155,10 @@
         <v>2.7200000000000002</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>749</v>
+        <v>853</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>1001</v>
+        <v>1151</v>
       </c>
       <c r="L254" s="0">
         <v>240</v>
@@ -20734,10 +21223,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>749</v>
+        <v>853</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>1002</v>
+        <v>1152</v>
       </c>
       <c r="L255" s="0">
         <v>1742</v>
@@ -20802,10 +21291,10 @@
         <v>2.5</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>749</v>
+        <v>853</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>1003</v>
+        <v>1153</v>
       </c>
       <c r="L256" s="0">
         <v>245</v>
@@ -20870,10 +21359,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>749</v>
+        <v>853</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>1004</v>
+        <v>1154</v>
       </c>
       <c r="L257" s="0">
         <v>1742</v>
@@ -20938,10 +21427,10 @@
         <v>1.52</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>1005</v>
+        <v>1155</v>
       </c>
       <c r="L258" s="0">
         <v>1476</v>
@@ -21006,10 +21495,10 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>1006</v>
+        <v>1156</v>
       </c>
       <c r="L259" s="0">
         <v>449</v>
@@ -21074,10 +21563,10 @@
         <v>1.7</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>1007</v>
+        <v>1157</v>
       </c>
       <c r="L260" s="0">
         <v>2263</v>
@@ -21142,10 +21631,10 @@
         <v>1.0800000000000001</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="K261" s="0" t="s">
-        <v>1008</v>
+        <v>1158</v>
       </c>
       <c r="L261" s="0">
         <v>231</v>
@@ -21210,10 +21699,10 @@
         <v>1.29</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="K262" s="0" t="s">
-        <v>1009</v>
+        <v>1159</v>
       </c>
       <c r="L262" s="0">
         <v>749</v>
@@ -21278,10 +21767,10 @@
         <v>2.0800000000000001</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="K263" s="0" t="s">
-        <v>1010</v>
+        <v>1160</v>
       </c>
       <c r="L263" s="0">
         <v>427</v>
@@ -21346,10 +21835,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>748</v>
+        <v>856</v>
       </c>
       <c r="K264" s="0" t="s">
-        <v>1011</v>
+        <v>1161</v>
       </c>
       <c r="L264" s="0">
         <v>1323</v>
@@ -21414,10 +21903,10 @@
         <v>1.8400000000000001</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>748</v>
+        <v>856</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>1012</v>
+        <v>1162</v>
       </c>
       <c r="L265" s="0">
         <v>931</v>
@@ -21482,10 +21971,10 @@
         <v>1.6599999999999999</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>748</v>
+        <v>856</v>
       </c>
       <c r="K266" s="0" t="s">
-        <v>1013</v>
+        <v>1163</v>
       </c>
       <c r="L266" s="0">
         <v>756</v>
@@ -21550,10 +22039,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>748</v>
+        <v>856</v>
       </c>
       <c r="K267" s="0" t="s">
-        <v>1014</v>
+        <v>1164</v>
       </c>
       <c r="L267" s="0">
         <v>1190</v>
@@ -21618,10 +22107,10 @@
         <v>2.6800000000000002</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>749</v>
+        <v>857</v>
       </c>
       <c r="K268" s="0" t="s">
-        <v>1015</v>
+        <v>1165</v>
       </c>
       <c r="L268" s="0">
         <v>168</v>
@@ -21686,10 +22175,10 @@
         <v>1.8</v>
       </c>
       <c r="J269" s="0" t="s">
-        <v>749</v>
+        <v>857</v>
       </c>
       <c r="K269" s="0" t="s">
-        <v>783</v>
+        <v>1166</v>
       </c>
       <c r="L269" s="0">
         <v>452</v>
@@ -21754,10 +22243,10 @@
         <v>1.3200000000000001</v>
       </c>
       <c r="J270" s="0" t="s">
-        <v>748</v>
+        <v>858</v>
       </c>
       <c r="K270" s="0" t="s">
-        <v>1016</v>
+        <v>1167</v>
       </c>
       <c r="L270" s="0">
         <v>1225</v>
@@ -21822,10 +22311,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J271" s="0" t="s">
-        <v>748</v>
+        <v>858</v>
       </c>
       <c r="K271" s="0" t="s">
-        <v>1017</v>
+        <v>1168</v>
       </c>
       <c r="L271" s="0">
         <v>343</v>
@@ -21890,10 +22379,10 @@
         <v>2.27</v>
       </c>
       <c r="J272" s="0" t="s">
-        <v>748</v>
+        <v>858</v>
       </c>
       <c r="K272" s="0" t="s">
-        <v>1018</v>
+        <v>1169</v>
       </c>
       <c r="L272" s="0">
         <v>553</v>
@@ -21958,10 +22447,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J273" s="0" t="s">
-        <v>748</v>
+        <v>858</v>
       </c>
       <c r="K273" s="0" t="s">
-        <v>1019</v>
+        <v>1170</v>
       </c>
       <c r="L273" s="0">
         <v>1486</v>
@@ -22026,10 +22515,10 @@
         <v>1.7</v>
       </c>
       <c r="J274" s="0" t="s">
-        <v>749</v>
+        <v>859</v>
       </c>
       <c r="K274" s="0" t="s">
-        <v>1020</v>
+        <v>1171</v>
       </c>
       <c r="L274" s="0">
         <v>308</v>
@@ -22094,10 +22583,10 @@
         <v>0.87</v>
       </c>
       <c r="J275" s="0" t="s">
-        <v>748</v>
+        <v>860</v>
       </c>
       <c r="K275" s="0" t="s">
-        <v>1021</v>
+        <v>1172</v>
       </c>
       <c r="L275" s="0">
         <v>651</v>
@@ -22162,10 +22651,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="J276" s="0" t="s">
-        <v>748</v>
+        <v>860</v>
       </c>
       <c r="K276" s="0" t="s">
-        <v>1022</v>
+        <v>1173</v>
       </c>
       <c r="L276" s="0">
         <v>1134</v>
@@ -22230,10 +22719,10 @@
         <v>1.6899999999999999</v>
       </c>
       <c r="J277" s="0" t="s">
-        <v>749</v>
+        <v>861</v>
       </c>
       <c r="K277" s="0" t="s">
-        <v>1023</v>
+        <v>1174</v>
       </c>
       <c r="L277" s="0">
         <v>301</v>
@@ -22298,10 +22787,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J278" s="0" t="s">
-        <v>748</v>
+        <v>862</v>
       </c>
       <c r="K278" s="0" t="s">
-        <v>1024</v>
+        <v>1175</v>
       </c>
       <c r="L278" s="0">
         <v>882</v>
@@ -22366,10 +22855,10 @@
         <v>1.4099999999999999</v>
       </c>
       <c r="J279" s="0" t="s">
-        <v>748</v>
+        <v>862</v>
       </c>
       <c r="K279" s="0" t="s">
-        <v>1025</v>
+        <v>1176</v>
       </c>
       <c r="L279" s="0">
         <v>1022</v>
@@ -22434,10 +22923,10 @@
         <v>1.95</v>
       </c>
       <c r="J280" s="0" t="s">
-        <v>749</v>
+        <v>863</v>
       </c>
       <c r="K280" s="0" t="s">
-        <v>1026</v>
+        <v>1177</v>
       </c>
       <c r="L280" s="0">
         <v>483</v>
@@ -22502,10 +22991,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J281" s="0" t="s">
-        <v>748</v>
+        <v>864</v>
       </c>
       <c r="K281" s="0" t="s">
-        <v>1027</v>
+        <v>1178</v>
       </c>
       <c r="L281" s="0">
         <v>140</v>
@@ -22570,10 +23059,10 @@
         <v>1.05</v>
       </c>
       <c r="J282" s="0" t="s">
-        <v>748</v>
+        <v>864</v>
       </c>
       <c r="K282" s="0" t="s">
-        <v>1028</v>
+        <v>1179</v>
       </c>
       <c r="L282" s="0">
         <v>28</v>
@@ -22638,10 +23127,10 @@
         <v>1.5</v>
       </c>
       <c r="J283" s="0" t="s">
-        <v>749</v>
+        <v>865</v>
       </c>
       <c r="K283" s="0" t="s">
-        <v>1029</v>
+        <v>1180</v>
       </c>
       <c r="L283" s="0">
         <v>665</v>
@@ -22706,10 +23195,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J284" s="0" t="s">
-        <v>749</v>
+        <v>865</v>
       </c>
       <c r="K284" s="0" t="s">
-        <v>1030</v>
+        <v>1181</v>
       </c>
       <c r="L284" s="0">
         <v>602</v>
@@ -22774,10 +23263,10 @@
         <v>1.22</v>
       </c>
       <c r="J285" s="0" t="s">
-        <v>749</v>
+        <v>865</v>
       </c>
       <c r="K285" s="0" t="s">
-        <v>1031</v>
+        <v>1182</v>
       </c>
       <c r="L285" s="0">
         <v>630</v>
@@ -22842,10 +23331,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J286" s="0" t="s">
-        <v>748</v>
+        <v>866</v>
       </c>
       <c r="K286" s="0" t="s">
-        <v>1032</v>
+        <v>1183</v>
       </c>
       <c r="L286" s="0">
         <v>1064</v>
@@ -22910,10 +23399,10 @@
         <v>2.6400000000000001</v>
       </c>
       <c r="J287" s="0" t="s">
-        <v>749</v>
+        <v>867</v>
       </c>
       <c r="K287" s="0" t="s">
-        <v>1033</v>
+        <v>1184</v>
       </c>
       <c r="L287" s="0">
         <v>126</v>
@@ -22978,10 +23467,10 @@
         <v>0.83999999999999997</v>
       </c>
       <c r="J288" s="0" t="s">
-        <v>749</v>
+        <v>867</v>
       </c>
       <c r="K288" s="0" t="s">
-        <v>948</v>
+        <v>1185</v>
       </c>
       <c r="L288" s="0">
         <v>637</v>
@@ -23046,10 +23535,10 @@
         <v>1.3899999999999999</v>
       </c>
       <c r="J289" s="0" t="s">
-        <v>749</v>
+        <v>867</v>
       </c>
       <c r="K289" s="0" t="s">
-        <v>1034</v>
+        <v>1186</v>
       </c>
       <c r="L289" s="0">
         <v>623</v>
@@ -23114,10 +23603,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J290" s="0" t="s">
-        <v>748</v>
+        <v>868</v>
       </c>
       <c r="K290" s="0" t="s">
-        <v>1035</v>
+        <v>1187</v>
       </c>
       <c r="L290" s="0">
         <v>371</v>
@@ -23182,10 +23671,10 @@
         <v>1.5900000000000001</v>
       </c>
       <c r="J291" s="0" t="s">
-        <v>748</v>
+        <v>868</v>
       </c>
       <c r="K291" s="0" t="s">
-        <v>1036</v>
+        <v>1188</v>
       </c>
       <c r="L291" s="0">
         <v>189</v>
@@ -23250,10 +23739,10 @@
         <v>2.52</v>
       </c>
       <c r="J292" s="0" t="s">
-        <v>749</v>
+        <v>869</v>
       </c>
       <c r="K292" s="0" t="s">
-        <v>961</v>
+        <v>1189</v>
       </c>
       <c r="L292" s="0">
         <v>2289</v>
@@ -23318,10 +23807,10 @@
         <v>1.53</v>
       </c>
       <c r="J293" s="0" t="s">
-        <v>749</v>
+        <v>869</v>
       </c>
       <c r="K293" s="0" t="s">
-        <v>1037</v>
+        <v>1190</v>
       </c>
       <c r="L293" s="0">
         <v>294</v>
@@ -23386,10 +23875,10 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J294" s="0" t="s">
-        <v>748</v>
+        <v>870</v>
       </c>
       <c r="K294" s="0" t="s">
-        <v>1038</v>
+        <v>1191</v>
       </c>
       <c r="L294" s="0">
         <v>707</v>
@@ -23454,10 +23943,10 @@
         <v>3.7799999999999998</v>
       </c>
       <c r="J295" s="0" t="s">
-        <v>748</v>
+        <v>870</v>
       </c>
       <c r="K295" s="0" t="s">
-        <v>1039</v>
+        <v>1192</v>
       </c>
       <c r="L295" s="0">
         <v>2601</v>
@@ -23522,10 +24011,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J296" s="0" t="s">
-        <v>748</v>
+        <v>870</v>
       </c>
       <c r="K296" s="0" t="s">
-        <v>853</v>
+        <v>1193</v>
       </c>
       <c r="L296" s="0">
         <v>504</v>
@@ -23590,10 +24079,10 @@
         <v>0.66000000000000003</v>
       </c>
       <c r="J297" s="0" t="s">
-        <v>748</v>
+        <v>870</v>
       </c>
       <c r="K297" s="0" t="s">
-        <v>1040</v>
+        <v>1194</v>
       </c>
       <c r="L297" s="0">
         <v>868</v>
@@ -23658,10 +24147,10 @@
         <v>1.23</v>
       </c>
       <c r="J298" s="0" t="s">
-        <v>749</v>
+        <v>871</v>
       </c>
       <c r="K298" s="0" t="s">
-        <v>806</v>
+        <v>1195</v>
       </c>
       <c r="L298" s="0">
         <v>616</v>
@@ -23726,10 +24215,10 @@
         <v>0.91000000000000003</v>
       </c>
       <c r="J299" s="0" t="s">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="K299" s="0" t="s">
-        <v>1041</v>
+        <v>1196</v>
       </c>
       <c r="L299" s="0">
         <v>917</v>
@@ -23794,10 +24283,10 @@
         <v>1.46</v>
       </c>
       <c r="J300" s="0" t="s">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="K300" s="0" t="s">
-        <v>1042</v>
+        <v>1197</v>
       </c>
       <c r="L300" s="0">
         <v>2028</v>
@@ -23862,10 +24351,10 @@
         <v>1.54</v>
       </c>
       <c r="J301" s="0" t="s">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="K301" s="0" t="s">
-        <v>1043</v>
+        <v>1198</v>
       </c>
       <c r="L301" s="0">
         <v>714</v>
@@ -23930,10 +24419,10 @@
         <v>1.53</v>
       </c>
       <c r="J302" s="0" t="s">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="K302" s="0" t="s">
-        <v>1044</v>
+        <v>1199</v>
       </c>
       <c r="L302" s="0">
         <v>182</v>
@@ -23998,10 +24487,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J303" s="0" t="s">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="K303" s="0" t="s">
-        <v>1045</v>
+        <v>1200</v>
       </c>
       <c r="L303" s="0">
         <v>511</v>
@@ -24066,10 +24555,10 @@
         <v>1.47</v>
       </c>
       <c r="J304" s="0" t="s">
-        <v>749</v>
+        <v>873</v>
       </c>
       <c r="K304" s="0" t="s">
-        <v>1046</v>
+        <v>1201</v>
       </c>
       <c r="L304" s="0">
         <v>259</v>
@@ -24134,10 +24623,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J305" s="0" t="s">
-        <v>748</v>
+        <v>874</v>
       </c>
       <c r="K305" s="0" t="s">
-        <v>1047</v>
+        <v>1202</v>
       </c>
       <c r="L305" s="0">
         <v>147</v>
@@ -24202,10 +24691,10 @@
         <v>2.1699999999999999</v>
       </c>
       <c r="J306" s="0" t="s">
-        <v>748</v>
+        <v>874</v>
       </c>
       <c r="K306" s="0" t="s">
-        <v>1048</v>
+        <v>1203</v>
       </c>
       <c r="L306" s="0">
         <v>377</v>
@@ -24270,10 +24759,10 @@
         <v>1.47</v>
       </c>
       <c r="J307" s="0" t="s">
-        <v>748</v>
+        <v>874</v>
       </c>
       <c r="K307" s="0" t="s">
-        <v>1049</v>
+        <v>1204</v>
       </c>
       <c r="L307" s="0">
         <v>349</v>
@@ -24338,10 +24827,10 @@
         <v>1.79</v>
       </c>
       <c r="J308" s="0" t="s">
-        <v>749</v>
+        <v>875</v>
       </c>
       <c r="K308" s="0" t="s">
-        <v>1050</v>
+        <v>1205</v>
       </c>
       <c r="L308" s="0">
         <v>204</v>
@@ -24406,10 +24895,10 @@
         <v>3.6299999999999999</v>
       </c>
       <c r="J309" s="0" t="s">
-        <v>749</v>
+        <v>875</v>
       </c>
       <c r="K309" s="0" t="s">
-        <v>1051</v>
+        <v>1206</v>
       </c>
       <c r="L309" s="0">
         <v>98</v>
@@ -24474,10 +24963,10 @@
         <v>0.91000000000000003</v>
       </c>
       <c r="J310" s="0" t="s">
-        <v>748</v>
+        <v>876</v>
       </c>
       <c r="K310" s="0" t="s">
-        <v>1052</v>
+        <v>1207</v>
       </c>
       <c r="L310" s="0">
         <v>1204</v>
@@ -24542,10 +25031,10 @@
         <v>1.77</v>
       </c>
       <c r="J311" s="0" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="K311" s="0" t="s">
-        <v>1053</v>
+        <v>1208</v>
       </c>
       <c r="L311" s="0">
         <v>217</v>
@@ -24610,10 +25099,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J312" s="0" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="K312" s="0" t="s">
-        <v>1054</v>
+        <v>1209</v>
       </c>
       <c r="L312" s="0">
         <v>595</v>
@@ -24678,10 +25167,10 @@
         <v>1.75</v>
       </c>
       <c r="J313" s="0" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="K313" s="0" t="s">
-        <v>1055</v>
+        <v>1210</v>
       </c>
       <c r="L313" s="0">
         <v>280</v>
@@ -24746,10 +25235,10 @@
         <v>0.70999999999999996</v>
       </c>
       <c r="J314" s="0" t="s">
-        <v>748</v>
+        <v>878</v>
       </c>
       <c r="K314" s="0" t="s">
-        <v>1056</v>
+        <v>1211</v>
       </c>
       <c r="L314" s="0">
         <v>133</v>
@@ -24814,10 +25303,10 @@
         <v>1.24</v>
       </c>
       <c r="J315" s="0" t="s">
-        <v>748</v>
+        <v>878</v>
       </c>
       <c r="K315" s="0" t="s">
-        <v>1057</v>
+        <v>1212</v>
       </c>
       <c r="L315" s="0">
         <v>399</v>
@@ -24882,10 +25371,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="J316" s="0" t="s">
-        <v>748</v>
+        <v>878</v>
       </c>
       <c r="K316" s="0" t="s">
-        <v>1058</v>
+        <v>1213</v>
       </c>
       <c r="L316" s="0">
         <v>364</v>
@@ -24950,10 +25439,10 @@
         <v>0.41999999999999998</v>
       </c>
       <c r="J317" s="0" t="s">
-        <v>748</v>
+        <v>878</v>
       </c>
       <c r="K317" s="0" t="s">
-        <v>1059</v>
+        <v>1214</v>
       </c>
       <c r="L317" s="0">
         <v>833</v>
@@ -25018,10 +25507,10 @@
         <v>0.75</v>
       </c>
       <c r="J318" s="0" t="s">
-        <v>748</v>
+        <v>878</v>
       </c>
       <c r="K318" s="0" t="s">
-        <v>985</v>
+        <v>1215</v>
       </c>
       <c r="L318" s="0">
         <v>1456</v>
@@ -25086,10 +25575,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J319" s="0" t="s">
-        <v>749</v>
+        <v>879</v>
       </c>
       <c r="K319" s="0" t="s">
-        <v>1060</v>
+        <v>1216</v>
       </c>
       <c r="L319" s="0">
         <v>742</v>
@@ -25154,10 +25643,10 @@
         <v>1.77</v>
       </c>
       <c r="J320" s="0" t="s">
-        <v>749</v>
+        <v>879</v>
       </c>
       <c r="K320" s="0" t="s">
-        <v>1061</v>
+        <v>1217</v>
       </c>
       <c r="L320" s="0">
         <v>95</v>
@@ -25222,10 +25711,10 @@
         <v>0.92000000000000004</v>
       </c>
       <c r="J321" s="0" t="s">
-        <v>748</v>
+        <v>880</v>
       </c>
       <c r="K321" s="0" t="s">
-        <v>1062</v>
+        <v>1218</v>
       </c>
       <c r="L321" s="0">
         <v>966</v>
@@ -25290,10 +25779,10 @@
         <v>1.77</v>
       </c>
       <c r="J322" s="0" t="s">
-        <v>748</v>
+        <v>880</v>
       </c>
       <c r="K322" s="0" t="s">
-        <v>1063</v>
+        <v>1219</v>
       </c>
       <c r="L322" s="0">
         <v>462</v>
@@ -25358,10 +25847,10 @@
         <v>1.5600000000000001</v>
       </c>
       <c r="J323" s="0" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
       <c r="K323" s="0" t="s">
-        <v>1064</v>
+        <v>1220</v>
       </c>
       <c r="L323" s="0">
         <v>77</v>
@@ -25426,10 +25915,10 @@
         <v>0.94999999999999996</v>
       </c>
       <c r="J324" s="0" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
       <c r="K324" s="0" t="s">
-        <v>1065</v>
+        <v>1221</v>
       </c>
       <c r="L324" s="0">
         <v>588</v>
@@ -25494,10 +25983,10 @@
         <v>0.96999999999999997</v>
       </c>
       <c r="J325" s="0" t="s">
-        <v>748</v>
+        <v>882</v>
       </c>
       <c r="K325" s="0" t="s">
-        <v>1066</v>
+        <v>1222</v>
       </c>
       <c r="L325" s="0">
         <v>1120</v>
@@ -25562,10 +26051,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="J326" s="0" t="s">
-        <v>748</v>
+        <v>882</v>
       </c>
       <c r="K326" s="0" t="s">
-        <v>1067</v>
+        <v>1223</v>
       </c>
       <c r="L326" s="0">
         <v>413</v>
@@ -25630,10 +26119,10 @@
         <v>1.02</v>
       </c>
       <c r="J327" s="0" t="s">
-        <v>749</v>
+        <v>883</v>
       </c>
       <c r="K327" s="0" t="s">
-        <v>1068</v>
+        <v>1224</v>
       </c>
       <c r="L327" s="0">
         <v>266</v>
@@ -25698,10 +26187,10 @@
         <v>0.93000000000000005</v>
       </c>
       <c r="J328" s="0" t="s">
-        <v>749</v>
+        <v>883</v>
       </c>
       <c r="K328" s="0" t="s">
-        <v>1069</v>
+        <v>1225</v>
       </c>
       <c r="L328" s="0">
         <v>609</v>
@@ -25766,10 +26255,10 @@
         <v>1.73</v>
       </c>
       <c r="J329" s="0" t="s">
-        <v>749</v>
+        <v>883</v>
       </c>
       <c r="K329" s="0" t="s">
-        <v>1070</v>
+        <v>1226</v>
       </c>
       <c r="L329" s="0">
         <v>224</v>
@@ -25834,10 +26323,10 @@
         <v>0.68999999999999995</v>
       </c>
       <c r="J330" s="0" t="s">
-        <v>748</v>
+        <v>884</v>
       </c>
       <c r="K330" s="0" t="s">
-        <v>935</v>
+        <v>1227</v>
       </c>
       <c r="L330" s="0">
         <v>1043</v>
@@ -25902,10 +26391,10 @@
         <v>1.21</v>
       </c>
       <c r="J331" s="0" t="s">
-        <v>748</v>
+        <v>884</v>
       </c>
       <c r="K331" s="0" t="s">
-        <v>1071</v>
+        <v>1228</v>
       </c>
       <c r="L331" s="0">
         <v>644</v>
@@ -25970,10 +26459,10 @@
         <v>1.45</v>
       </c>
       <c r="J332" s="0" t="s">
-        <v>748</v>
+        <v>884</v>
       </c>
       <c r="K332" s="0" t="s">
-        <v>1072</v>
+        <v>1229</v>
       </c>
       <c r="L332" s="0">
         <v>385</v>
@@ -26038,10 +26527,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="J333" s="0" t="s">
-        <v>749</v>
+        <v>885</v>
       </c>
       <c r="K333" s="0" t="s">
-        <v>1073</v>
+        <v>1230</v>
       </c>
       <c r="L333" s="0">
         <v>91</v>
@@ -26106,10 +26595,10 @@
         <v>1.8300000000000001</v>
       </c>
       <c r="J334" s="0" t="s">
-        <v>749</v>
+        <v>885</v>
       </c>
       <c r="K334" s="0" t="s">
-        <v>1074</v>
+        <v>1231</v>
       </c>
       <c r="L334" s="0">
         <v>84</v>
@@ -26174,10 +26663,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J335" s="0" t="s">
-        <v>749</v>
+        <v>885</v>
       </c>
       <c r="K335" s="0" t="s">
-        <v>1075</v>
+        <v>1232</v>
       </c>
       <c r="L335" s="0">
         <v>2281</v>
@@ -26242,10 +26731,10 @@
         <v>1.8</v>
       </c>
       <c r="J336" s="0" t="s">
-        <v>749</v>
+        <v>885</v>
       </c>
       <c r="K336" s="0" t="s">
-        <v>1076</v>
+        <v>1233</v>
       </c>
       <c r="L336" s="0">
         <v>70</v>
@@ -26310,10 +26799,10 @@
         <v>0.89000000000000001</v>
       </c>
       <c r="J337" s="0" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="K337" s="0" t="s">
-        <v>1077</v>
+        <v>1234</v>
       </c>
       <c r="L337" s="0">
         <v>525</v>
@@ -26378,10 +26867,10 @@
         <v>1.71</v>
       </c>
       <c r="J338" s="0" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="K338" s="0" t="s">
-        <v>1078</v>
+        <v>1235</v>
       </c>
       <c r="L338" s="0">
         <v>75</v>
@@ -26446,10 +26935,10 @@
         <v>1.04</v>
       </c>
       <c r="J339" s="0" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="K339" s="0" t="s">
-        <v>1079</v>
+        <v>1236</v>
       </c>
       <c r="L339" s="0">
         <v>273</v>
@@ -26514,10 +27003,10 @@
         <v>0.68999999999999995</v>
       </c>
       <c r="J340" s="0" t="s">
-        <v>748</v>
+        <v>888</v>
       </c>
       <c r="K340" s="0" t="s">
-        <v>1080</v>
+        <v>1237</v>
       </c>
       <c r="L340" s="0">
         <v>700</v>
@@ -26582,10 +27071,10 @@
         <v>0.68000000000000005</v>
       </c>
       <c r="J341" s="0" t="s">
-        <v>748</v>
+        <v>888</v>
       </c>
       <c r="K341" s="0" t="s">
-        <v>1081</v>
+        <v>1238</v>
       </c>
       <c r="L341" s="0">
         <v>1155</v>
@@ -26650,10 +27139,10 @@
         <v>0.75</v>
       </c>
       <c r="J342" s="0" t="s">
-        <v>748</v>
+        <v>888</v>
       </c>
       <c r="K342" s="0" t="s">
-        <v>1082</v>
+        <v>1239</v>
       </c>
       <c r="L342" s="0">
         <v>1211</v>
@@ -26718,10 +27207,10 @@
         <v>1.46</v>
       </c>
       <c r="J343" s="0" t="s">
-        <v>749</v>
+        <v>889</v>
       </c>
       <c r="K343" s="0" t="s">
-        <v>797</v>
+        <v>1240</v>
       </c>
       <c r="L343" s="0">
         <v>61</v>
@@ -26786,10 +27275,10 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="J344" s="0" t="s">
-        <v>748</v>
+        <v>890</v>
       </c>
       <c r="K344" s="0" t="s">
-        <v>1083</v>
+        <v>1241</v>
       </c>
       <c r="L344" s="0">
         <v>1393</v>
@@ -26854,10 +27343,10 @@
         <v>0.53000000000000003</v>
       </c>
       <c r="J345" s="0" t="s">
-        <v>748</v>
+        <v>890</v>
       </c>
       <c r="K345" s="0" t="s">
-        <v>1084</v>
+        <v>1242</v>
       </c>
       <c r="L345" s="0">
         <v>1071</v>
@@ -26922,10 +27411,10 @@
         <v>1.49</v>
       </c>
       <c r="J346" s="0" t="s">
-        <v>749</v>
+        <v>891</v>
       </c>
       <c r="K346" s="0" t="s">
-        <v>1016</v>
+        <v>1243</v>
       </c>
       <c r="L346" s="0">
         <v>40</v>
@@ -26990,10 +27479,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J347" s="0" t="s">
-        <v>749</v>
+        <v>891</v>
       </c>
       <c r="K347" s="0" t="s">
-        <v>1085</v>
+        <v>1244</v>
       </c>
       <c r="L347" s="0">
         <v>14</v>
@@ -27058,10 +27547,10 @@
         <v>0.81000000000000005</v>
       </c>
       <c r="J348" s="0" t="s">
-        <v>748</v>
+        <v>892</v>
       </c>
       <c r="K348" s="0" t="s">
-        <v>1086</v>
+        <v>1245</v>
       </c>
       <c r="L348" s="0">
         <v>581</v>
@@ -27126,10 +27615,10 @@
         <v>0.82999999999999996</v>
       </c>
       <c r="J349" s="0" t="s">
-        <v>748</v>
+        <v>892</v>
       </c>
       <c r="K349" s="0" t="s">
-        <v>1087</v>
+        <v>1246</v>
       </c>
       <c r="L349" s="0">
         <v>560</v>
@@ -27194,10 +27683,10 @@
         <v>1.23</v>
       </c>
       <c r="J350" s="0" t="s">
-        <v>748</v>
+        <v>892</v>
       </c>
       <c r="K350" s="0" t="s">
-        <v>1088</v>
+        <v>1247</v>
       </c>
       <c r="L350" s="0">
         <v>210</v>
@@ -27262,10 +27751,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J351" s="0" t="s">
-        <v>749</v>
+        <v>893</v>
       </c>
       <c r="K351" s="0" t="s">
-        <v>950</v>
+        <v>1248</v>
       </c>
       <c r="L351" s="0">
         <v>47</v>
@@ -27330,10 +27819,10 @@
         <v>0.97999999999999998</v>
       </c>
       <c r="J352" s="0" t="s">
-        <v>748</v>
+        <v>894</v>
       </c>
       <c r="K352" s="0" t="s">
-        <v>1089</v>
+        <v>1249</v>
       </c>
       <c r="L352" s="0">
         <v>35</v>
@@ -27398,10 +27887,10 @@
         <v>1.6599999999999999</v>
       </c>
       <c r="J353" s="0" t="s">
-        <v>748</v>
+        <v>894</v>
       </c>
       <c r="K353" s="0" t="s">
-        <v>1090</v>
+        <v>1250</v>
       </c>
       <c r="L353" s="0">
         <v>63</v>
@@ -27466,10 +27955,10 @@
         <v>1.3300000000000001</v>
       </c>
       <c r="J354" s="0" t="s">
-        <v>749</v>
+        <v>895</v>
       </c>
       <c r="K354" s="0" t="s">
-        <v>921</v>
+        <v>1251</v>
       </c>
       <c r="L354" s="0">
         <v>54</v>
@@ -27534,10 +28023,10 @@
         <v>1.78</v>
       </c>
       <c r="J355" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K355" s="0" t="s">
-        <v>1091</v>
+        <v>1252</v>
       </c>
       <c r="L355" s="0">
         <v>2377</v>
@@ -27602,10 +28091,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J356" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K356" s="0" t="s">
-        <v>1092</v>
+        <v>1253</v>
       </c>
       <c r="L356" s="0">
         <v>2312</v>
@@ -27670,10 +28159,10 @@
         <v>0.37</v>
       </c>
       <c r="J357" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K357" s="0" t="s">
-        <v>1093</v>
+        <v>1254</v>
       </c>
       <c r="L357" s="0">
         <v>1316</v>
@@ -27738,10 +28227,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J358" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K358" s="0" t="s">
-        <v>1094</v>
+        <v>1255</v>
       </c>
       <c r="L358" s="0">
         <v>21</v>
@@ -27806,10 +28295,10 @@
         <v>1.04</v>
       </c>
       <c r="J359" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K359" s="0" t="s">
-        <v>1095</v>
+        <v>1256</v>
       </c>
       <c r="L359" s="0">
         <v>7</v>
@@ -27872,10 +28361,10 @@
         <v>0</v>
       </c>
       <c r="J360" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K360" s="0" t="s">
-        <v>1096</v>
+        <v>1257</v>
       </c>
       <c r="L360" s="0"/>
       <c r="M360" s="0">
@@ -27928,10 +28417,10 @@
         <v>0</v>
       </c>
       <c r="J361" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K361" s="0" t="s">
-        <v>1091</v>
+        <v>1258</v>
       </c>
       <c r="L361" s="0"/>
       <c r="M361" s="0">
@@ -27984,10 +28473,10 @@
         <v>0</v>
       </c>
       <c r="J362" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K362" s="0" t="s">
-        <v>1097</v>
+        <v>1259</v>
       </c>
       <c r="L362" s="0"/>
       <c r="M362" s="0">
@@ -28040,10 +28529,10 @@
         <v>0</v>
       </c>
       <c r="J363" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K363" s="0" t="s">
-        <v>1098</v>
+        <v>1260</v>
       </c>
       <c r="L363" s="0"/>
       <c r="M363" s="0">
@@ -28096,10 +28585,10 @@
         <v>0</v>
       </c>
       <c r="J364" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K364" s="0" t="s">
-        <v>1099</v>
+        <v>1261</v>
       </c>
       <c r="L364" s="0"/>
       <c r="M364" s="0">
@@ -28152,10 +28641,10 @@
         <v>0</v>
       </c>
       <c r="J365" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K365" s="0" t="s">
-        <v>1100</v>
+        <v>1262</v>
       </c>
       <c r="L365" s="0"/>
       <c r="M365" s="0">
@@ -28208,10 +28697,10 @@
         <v>0</v>
       </c>
       <c r="J366" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K366" s="0" t="s">
-        <v>854</v>
+        <v>1263</v>
       </c>
       <c r="L366" s="0"/>
       <c r="M366" s="0">
@@ -28264,10 +28753,10 @@
         <v>0</v>
       </c>
       <c r="J367" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K367" s="0" t="s">
-        <v>1101</v>
+        <v>1264</v>
       </c>
       <c r="L367" s="0"/>
       <c r="M367" s="0">
@@ -28320,10 +28809,10 @@
         <v>0</v>
       </c>
       <c r="J368" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K368" s="0" t="s">
-        <v>1098</v>
+        <v>1265</v>
       </c>
       <c r="L368" s="0"/>
       <c r="M368" s="0">
@@ -28376,10 +28865,10 @@
         <v>0</v>
       </c>
       <c r="J369" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K369" s="0" t="s">
-        <v>1102</v>
+        <v>1266</v>
       </c>
       <c r="L369" s="0"/>
       <c r="M369" s="0">
@@ -28434,10 +28923,10 @@
         <v>0</v>
       </c>
       <c r="J370" s="0" t="s">
-        <v>749</v>
+        <v>897</v>
       </c>
       <c r="K370" s="0" t="s">
-        <v>1103</v>
+        <v>1267</v>
       </c>
       <c r="L370" s="0">
         <v>0</v>

--- a/Apps/YouTubeAnalysis/Analysis/Content/Step02_TableDataAugmentedExtraColumns.xlsx
+++ b/Apps/YouTubeAnalysis/Analysis/Content/Step02_TableDataAugmentedExtraColumns.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1498" uniqueCount="1115">
   <si>
     <t>Content</t>
   </si>
@@ -2265,450 +2265,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>VideoDuration</t>
   </si>
   <si>
@@ -2922,9 +2478,6 @@
     <t>55:14</t>
   </si>
   <si>
-    <t>6:59</t>
-  </si>
-  <si>
     <t>45:39</t>
   </si>
   <si>
@@ -3438,9 +2991,6 @@
     <t>22:54</t>
   </si>
   <si>
-    <t>14:37</t>
-  </si>
-  <si>
     <t>1:08:04</t>
   </si>
   <si>
@@ -3513,9 +3063,6 @@
     <t>19:23</t>
   </si>
   <si>
-    <t>5:05</t>
-  </si>
-  <si>
     <t>9:48</t>
   </si>
   <si>
@@ -3570,9 +3117,6 @@
     <t>30:19</t>
   </si>
   <si>
-    <t>43:50</t>
-  </si>
-  <si>
     <t>41:25</t>
   </si>
   <si>
@@ -3582,9 +3126,6 @@
     <t>4:23</t>
   </si>
   <si>
-    <t>11:55</t>
-  </si>
-  <si>
     <t>38:58</t>
   </si>
   <si>
@@ -3594,15 +3135,9 @@
     <t>4:32</t>
   </si>
   <si>
-    <t>4:44</t>
-  </si>
-  <si>
     <t>3:08</t>
   </si>
   <si>
-    <t>28:05</t>
-  </si>
-  <si>
     <t>16:16</t>
   </si>
   <si>
@@ -3660,9 +3195,6 @@
     <t>17:14</t>
   </si>
   <si>
-    <t>8:36</t>
-  </si>
-  <si>
     <t>10:45</t>
   </si>
   <si>
@@ -3696,9 +3228,6 @@
     <t>13:40</t>
   </si>
   <si>
-    <t>16:28</t>
-  </si>
-  <si>
     <t>4:17</t>
   </si>
   <si>
@@ -3735,18 +3264,12 @@
     <t>7:45</t>
   </si>
   <si>
-    <t>15:02</t>
-  </si>
-  <si>
     <t>4:12</t>
   </si>
   <si>
     <t>3:25</t>
   </si>
   <si>
-    <t>9:48</t>
-  </si>
-  <si>
     <t>29:50</t>
   </si>
   <si>
@@ -3759,18 +3282,12 @@
     <t>7:26</t>
   </si>
   <si>
-    <t>19:14</t>
-  </si>
-  <si>
     <t>9:29</t>
   </si>
   <si>
     <t>6:44</t>
   </si>
   <si>
-    <t>10:53</t>
-  </si>
-  <si>
     <t>1:37</t>
   </si>
   <si>
@@ -3789,9 +3306,6 @@
     <t>1:14</t>
   </si>
   <si>
-    <t>1:37</t>
-  </si>
-  <si>
     <t>1:49</t>
   </si>
   <si>
@@ -3804,13 +3318,7 @@
     <t>0:34</t>
   </si>
   <si>
-    <t>15:56</t>
-  </si>
-  <si>
     <t>1:48</t>
-  </si>
-  <si>
-    <t>1:03</t>
   </si>
   <si>
     <t>0:43</t>
@@ -3855,7 +3363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -3894,32 +3402,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V370"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="true"/>
-    <col min="2" max="2" width="83.2578125" customWidth="true"/>
-    <col min="3" max="3" width="15.984375" customWidth="true"/>
-    <col min="4" max="4" width="8.16796875" customWidth="true"/>
-    <col min="5" max="5" width="17.44140625" customWidth="true"/>
-    <col min="6" max="6" width="10.7109375" customWidth="true"/>
-    <col min="7" max="7" width="22.07421875" customWidth="true"/>
-    <col min="8" max="8" width="11.2578125" customWidth="true"/>
-    <col min="9" max="9" width="29.34765625" customWidth="true"/>
-    <col min="10" max="10" width="11.984375" customWidth="true"/>
-    <col min="11" max="11" width="13.2578125" customWidth="true"/>
-    <col min="12" max="12" width="13.8046875" customWidth="true"/>
-    <col min="13" max="13" width="16.89453125" customWidth="true"/>
-    <col min="14" max="14" width="28.2578125" customWidth="true"/>
-    <col min="15" max="15" width="24.16796875" customWidth="true"/>
-    <col min="16" max="16" width="26.2578125" customWidth="true"/>
-    <col min="17" max="17" width="18.62109375" customWidth="true"/>
-    <col min="18" max="18" width="29.07421875" customWidth="true"/>
-    <col min="19" max="19" width="23.34765625" customWidth="true"/>
-    <col min="20" max="20" width="25.44140625" customWidth="true"/>
-    <col min="21" max="21" width="38.44140625" customWidth="true"/>
-    <col min="22" max="22" width="25.44140625" customWidth="true"/>
+    <col min="1" max="1" width="16" customWidth="true"/>
+    <col min="2" max="2" width="88.7109375" customWidth="true"/>
+    <col min="3" max="3" width="17.42578125" customWidth="true"/>
+    <col min="4" max="4" width="8.140625" customWidth="true"/>
+    <col min="5" max="5" width="18.140625" customWidth="true"/>
+    <col min="6" max="6" width="11.28515625" customWidth="true"/>
+    <col min="7" max="7" width="23.42578125" customWidth="true"/>
+    <col min="8" max="8" width="11.85546875" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="10" max="10" width="12.85546875" customWidth="true"/>
+    <col min="11" max="11" width="14.140625" customWidth="true"/>
+    <col min="12" max="12" width="14.85546875" customWidth="true"/>
+    <col min="13" max="13" width="18" customWidth="true"/>
+    <col min="14" max="14" width="30.42578125" customWidth="true"/>
+    <col min="15" max="15" width="26.140625" customWidth="true"/>
+    <col min="16" max="16" width="28.42578125" customWidth="true"/>
+    <col min="17" max="17" width="20.140625" customWidth="true"/>
+    <col min="18" max="18" width="30.7109375" customWidth="true"/>
+    <col min="19" max="19" width="24.85546875" customWidth="true"/>
+    <col min="20" max="20" width="27.140625" customWidth="true"/>
+    <col min="21" max="21" width="41" customWidth="true"/>
+    <col min="22" max="22" width="27.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3954,40 +3465,40 @@
         <v>747</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>898</v>
+        <v>750</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1268</v>
+        <v>1104</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1269</v>
+        <v>1105</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1270</v>
+        <v>1106</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1271</v>
+        <v>1107</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1272</v>
+        <v>1108</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1273</v>
+        <v>1109</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1274</v>
+        <v>1110</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1275</v>
+        <v>1111</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1276</v>
+        <v>1112</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1277</v>
+        <v>1113</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1278</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2">
@@ -4022,7 +3533,7 @@
         <v>748</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>899</v>
+        <v>751</v>
       </c>
       <c r="L2" s="0">
         <v>1442</v>
@@ -4090,7 +3601,7 @@
         <v>748</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>900</v>
+        <v>752</v>
       </c>
       <c r="L3" s="0">
         <v>1728</v>
@@ -4158,7 +3669,7 @@
         <v>749</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>901</v>
+        <v>753</v>
       </c>
       <c r="L4" s="0">
         <v>2009</v>
@@ -4223,10 +3734,10 @@
         <v>7.1399999999999997</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>902</v>
+        <v>754</v>
       </c>
       <c r="L5" s="0">
         <v>896</v>
@@ -4291,10 +3802,10 @@
         <v>5.1900000000000004</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>903</v>
+        <v>755</v>
       </c>
       <c r="L6" s="0">
         <v>2050</v>
@@ -4359,10 +3870,10 @@
         <v>3.1499999999999999</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>904</v>
+        <v>756</v>
       </c>
       <c r="L7" s="0">
         <v>2089</v>
@@ -4427,10 +3938,10 @@
         <v>2.9700000000000002</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>905</v>
+        <v>757</v>
       </c>
       <c r="L8" s="0">
         <v>1698</v>
@@ -4495,10 +4006,10 @@
         <v>4.1600000000000001</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>906</v>
+        <v>758</v>
       </c>
       <c r="L9" s="0">
         <v>784</v>
@@ -4563,10 +4074,10 @@
         <v>4.9199999999999999</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>907</v>
+        <v>759</v>
       </c>
       <c r="L10" s="0">
         <v>1232</v>
@@ -4631,10 +4142,10 @@
         <v>6.7400000000000002</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>908</v>
+        <v>760</v>
       </c>
       <c r="L11" s="0">
         <v>1742</v>
@@ -4699,10 +4210,10 @@
         <v>3.79</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>909</v>
+        <v>761</v>
       </c>
       <c r="L12" s="0">
         <v>2094</v>
@@ -4767,10 +4278,10 @@
         <v>7.9800000000000004</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>910</v>
+        <v>762</v>
       </c>
       <c r="L13" s="0">
         <v>2020</v>
@@ -4835,10 +4346,10 @@
         <v>5.1500000000000004</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>911</v>
+        <v>763</v>
       </c>
       <c r="L14" s="0">
         <v>2102</v>
@@ -4903,10 +4414,10 @@
         <v>5.9400000000000004</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>912</v>
+        <v>764</v>
       </c>
       <c r="L15" s="0">
         <v>1728</v>
@@ -4971,10 +4482,10 @@
         <v>8.3499999999999996</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>913</v>
+        <v>765</v>
       </c>
       <c r="L16" s="0">
         <v>2390</v>
@@ -5039,10 +4550,10 @@
         <v>4.0099999999999998</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>914</v>
+        <v>766</v>
       </c>
       <c r="L17" s="0">
         <v>1876</v>
@@ -5107,10 +4618,10 @@
         <v>8.6600000000000001</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>915</v>
+        <v>767</v>
       </c>
       <c r="L18" s="0">
         <v>910</v>
@@ -5175,10 +4686,10 @@
         <v>4.1200000000000001</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>916</v>
+        <v>768</v>
       </c>
       <c r="L19" s="0">
         <v>1728</v>
@@ -5243,10 +4754,10 @@
         <v>5.0700000000000003</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>917</v>
+        <v>769</v>
       </c>
       <c r="L20" s="0">
         <v>2110</v>
@@ -5311,10 +4822,10 @@
         <v>3.6099999999999999</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>918</v>
+        <v>770</v>
       </c>
       <c r="L21" s="0">
         <v>2044</v>
@@ -5379,10 +4890,10 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>919</v>
+        <v>771</v>
       </c>
       <c r="L22" s="0">
         <v>2104</v>
@@ -5447,10 +4958,10 @@
         <v>4.4299999999999997</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>920</v>
+        <v>772</v>
       </c>
       <c r="L23" s="0">
         <v>2072</v>
@@ -5515,10 +5026,10 @@
         <v>4.2599999999999998</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>921</v>
+        <v>773</v>
       </c>
       <c r="L24" s="0">
         <v>2141</v>
@@ -5583,10 +5094,10 @@
         <v>3.6000000000000001</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>922</v>
+        <v>774</v>
       </c>
       <c r="L25" s="0">
         <v>1875</v>
@@ -5651,10 +5162,10 @@
         <v>5.71</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>923</v>
+        <v>775</v>
       </c>
       <c r="L26" s="0">
         <v>2065</v>
@@ -5719,10 +5230,10 @@
         <v>7.3700000000000001</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>924</v>
+        <v>776</v>
       </c>
       <c r="L27" s="0">
         <v>2118</v>
@@ -5787,10 +5298,10 @@
         <v>7.9400000000000004</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>925</v>
+        <v>777</v>
       </c>
       <c r="L28" s="0">
         <v>2390</v>
@@ -5855,10 +5366,10 @@
         <v>6.1900000000000004</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>926</v>
+        <v>778</v>
       </c>
       <c r="L29" s="0">
         <v>2113</v>
@@ -5923,10 +5434,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>927</v>
+        <v>779</v>
       </c>
       <c r="L30" s="0">
         <v>2107</v>
@@ -5991,10 +5502,10 @@
         <v>3.7000000000000002</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>928</v>
+        <v>780</v>
       </c>
       <c r="L31" s="0">
         <v>1918</v>
@@ -6059,10 +5570,10 @@
         <v>5</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>929</v>
+        <v>781</v>
       </c>
       <c r="L32" s="0">
         <v>2066</v>
@@ -6127,10 +5638,10 @@
         <v>10.359999999999999</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>930</v>
+        <v>782</v>
       </c>
       <c r="L33" s="0">
         <v>777</v>
@@ -6195,10 +5706,10 @@
         <v>7.0700000000000003</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>931</v>
+        <v>783</v>
       </c>
       <c r="L34" s="0">
         <v>2065</v>
@@ -6263,10 +5774,10 @@
         <v>3.9300000000000002</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>932</v>
+        <v>784</v>
       </c>
       <c r="L35" s="0">
         <v>2064</v>
@@ -6331,10 +5842,10 @@
         <v>6.0499999999999998</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>933</v>
+        <v>785</v>
       </c>
       <c r="L36" s="0">
         <v>2086</v>
@@ -6399,10 +5910,10 @@
         <v>4.5700000000000003</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>934</v>
+        <v>786</v>
       </c>
       <c r="L37" s="0">
         <v>1344</v>
@@ -6467,10 +5978,10 @@
         <v>9.1699999999999999</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>935</v>
+        <v>787</v>
       </c>
       <c r="L38" s="0">
         <v>2136</v>
@@ -6535,10 +6046,10 @@
         <v>5.8700000000000001</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>936</v>
+        <v>788</v>
       </c>
       <c r="L39" s="0">
         <v>1449</v>
@@ -6603,10 +6114,10 @@
         <v>9.9199999999999999</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>937</v>
+        <v>789</v>
       </c>
       <c r="L40" s="0">
         <v>1008</v>
@@ -6671,10 +6182,10 @@
         <v>5.4299999999999997</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>938</v>
+        <v>790</v>
       </c>
       <c r="L41" s="0">
         <v>1435</v>
@@ -6739,10 +6250,10 @@
         <v>3.6299999999999999</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>939</v>
+        <v>791</v>
       </c>
       <c r="L42" s="0">
         <v>2121</v>
@@ -6807,10 +6318,10 @@
         <v>8.6699999999999999</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>940</v>
+        <v>792</v>
       </c>
       <c r="L43" s="0">
         <v>497</v>
@@ -6875,10 +6386,10 @@
         <v>3.5699999999999998</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>941</v>
+        <v>793</v>
       </c>
       <c r="L44" s="0">
         <v>1878</v>
@@ -6943,10 +6454,10 @@
         <v>5.5999999999999996</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>942</v>
+        <v>794</v>
       </c>
       <c r="L45" s="0">
         <v>2133</v>
@@ -7011,10 +6522,10 @@
         <v>4.7400000000000002</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>943</v>
+        <v>795</v>
       </c>
       <c r="L46" s="0">
         <v>1493</v>
@@ -7079,10 +6590,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>944</v>
+        <v>796</v>
       </c>
       <c r="L47" s="0">
         <v>1099</v>
@@ -7147,10 +6658,10 @@
         <v>4.0800000000000001</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>945</v>
+        <v>797</v>
       </c>
       <c r="L48" s="0">
         <v>1619</v>
@@ -7215,10 +6726,10 @@
         <v>6.1900000000000004</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>946</v>
+        <v>798</v>
       </c>
       <c r="L49" s="0">
         <v>2105</v>
@@ -7283,10 +6794,10 @@
         <v>4.7199999999999998</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>947</v>
+        <v>799</v>
       </c>
       <c r="L50" s="0">
         <v>1722</v>
@@ -7351,10 +6862,10 @@
         <v>3.21</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>948</v>
+        <v>800</v>
       </c>
       <c r="L51" s="0">
         <v>434</v>
@@ -7419,10 +6930,10 @@
         <v>3.6099999999999999</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>949</v>
+        <v>801</v>
       </c>
       <c r="L52" s="0">
         <v>2125</v>
@@ -7487,10 +6998,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>950</v>
+        <v>802</v>
       </c>
       <c r="L53" s="0">
         <v>1694</v>
@@ -7555,10 +7066,10 @@
         <v>3.8199999999999998</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>951</v>
+        <v>803</v>
       </c>
       <c r="L54" s="0">
         <v>1559</v>
@@ -7623,10 +7134,10 @@
         <v>3.4199999999999999</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>952</v>
+        <v>804</v>
       </c>
       <c r="L55" s="0">
         <v>1612</v>
@@ -7691,10 +7202,10 @@
         <v>8.0899999999999999</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>953</v>
+        <v>805</v>
       </c>
       <c r="L56" s="0">
         <v>1651</v>
@@ -7759,10 +7270,10 @@
         <v>3.46</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>954</v>
+        <v>806</v>
       </c>
       <c r="L57" s="0">
         <v>1621</v>
@@ -7827,10 +7338,10 @@
         <v>1.05</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>955</v>
+        <v>807</v>
       </c>
       <c r="L58" s="0">
         <v>1057</v>
@@ -7895,10 +7406,10 @@
         <v>5.1200000000000001</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>956</v>
+        <v>808</v>
       </c>
       <c r="L59" s="0">
         <v>2101</v>
@@ -7963,10 +7474,10 @@
         <v>5.0099999999999998</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>957</v>
+        <v>809</v>
       </c>
       <c r="L60" s="0">
         <v>1531</v>
@@ -8031,10 +7542,10 @@
         <v>6.1699999999999999</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>958</v>
+        <v>810</v>
       </c>
       <c r="L61" s="0">
         <v>2084</v>
@@ -8099,10 +7610,10 @@
         <v>4.8700000000000001</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>959</v>
+        <v>811</v>
       </c>
       <c r="L62" s="0">
         <v>1534</v>
@@ -8167,10 +7678,10 @@
         <v>7.46</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>960</v>
+        <v>812</v>
       </c>
       <c r="L63" s="0">
         <v>336</v>
@@ -8235,10 +7746,10 @@
         <v>2.96</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>961</v>
+        <v>813</v>
       </c>
       <c r="L64" s="0">
         <v>1686</v>
@@ -8303,10 +7814,10 @@
         <v>6.5700000000000003</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>962</v>
+        <v>814</v>
       </c>
       <c r="L65" s="0">
         <v>574</v>
@@ -8371,10 +7882,10 @@
         <v>5.4100000000000001</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>963</v>
+        <v>815</v>
       </c>
       <c r="L66" s="0">
         <v>693</v>
@@ -8439,10 +7950,10 @@
         <v>4</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>964</v>
+        <v>816</v>
       </c>
       <c r="L67" s="0">
         <v>1197</v>
@@ -8507,10 +8018,10 @@
         <v>3.3300000000000001</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>965</v>
+        <v>817</v>
       </c>
       <c r="L68" s="0">
         <v>1869</v>
@@ -8575,10 +8086,10 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>966</v>
+        <v>818</v>
       </c>
       <c r="L69" s="0">
         <v>1573</v>
@@ -8643,10 +8154,10 @@
         <v>3.46</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="L70" s="0">
         <v>1917</v>
@@ -8711,10 +8222,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>968</v>
+        <v>820</v>
       </c>
       <c r="L71" s="0">
         <v>1864</v>
@@ -8779,10 +8290,10 @@
         <v>5.1399999999999997</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>969</v>
+        <v>764</v>
       </c>
       <c r="L72" s="0">
         <v>1742</v>
@@ -8847,10 +8358,10 @@
         <v>3</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>970</v>
+        <v>821</v>
       </c>
       <c r="L73" s="0">
         <v>2020</v>
@@ -8915,10 +8426,10 @@
         <v>2.98</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>971</v>
+        <v>822</v>
       </c>
       <c r="L74" s="0">
         <v>1889</v>
@@ -8983,10 +8494,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>972</v>
+        <v>823</v>
       </c>
       <c r="L75" s="0">
         <v>1889</v>
@@ -9051,10 +8562,10 @@
         <v>5.4299999999999997</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>778</v>
+        <v>748</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>973</v>
+        <v>824</v>
       </c>
       <c r="L76" s="0">
         <v>1302</v>
@@ -9119,10 +8630,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>974</v>
+        <v>825</v>
       </c>
       <c r="L77" s="0">
         <v>1702</v>
@@ -9187,10 +8698,10 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>975</v>
+        <v>826</v>
       </c>
       <c r="L78" s="0">
         <v>1358</v>
@@ -9255,10 +8766,10 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>976</v>
+        <v>827</v>
       </c>
       <c r="L79" s="0">
         <v>2016</v>
@@ -9323,10 +8834,10 @@
         <v>3</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>977</v>
+        <v>828</v>
       </c>
       <c r="L80" s="0">
         <v>2110</v>
@@ -9391,10 +8902,10 @@
         <v>3.7200000000000002</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>782</v>
+        <v>748</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>978</v>
+        <v>829</v>
       </c>
       <c r="L81" s="0">
         <v>420</v>
@@ -9459,10 +8970,10 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>782</v>
+        <v>748</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>979</v>
+        <v>830</v>
       </c>
       <c r="L82" s="0">
         <v>1414</v>
@@ -9527,10 +9038,10 @@
         <v>6.0800000000000001</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>783</v>
+        <v>749</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>980</v>
+        <v>831</v>
       </c>
       <c r="L83" s="0">
         <v>2061</v>
@@ -9595,10 +9106,10 @@
         <v>4.7199999999999998</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>783</v>
+        <v>749</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>981</v>
+        <v>832</v>
       </c>
       <c r="L84" s="0">
         <v>2058</v>
@@ -9663,10 +9174,10 @@
         <v>4.4500000000000002</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>783</v>
+        <v>749</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>982</v>
+        <v>833</v>
       </c>
       <c r="L85" s="0">
         <v>2061</v>
@@ -9731,10 +9242,10 @@
         <v>6.0199999999999996</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>983</v>
+        <v>834</v>
       </c>
       <c r="L86" s="0">
         <v>1113</v>
@@ -9799,10 +9310,10 @@
         <v>4.4699999999999998</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>984</v>
+        <v>835</v>
       </c>
       <c r="L87" s="0">
         <v>798</v>
@@ -9867,10 +9378,10 @@
         <v>6.7199999999999998</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>786</v>
+        <v>748</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>985</v>
+        <v>836</v>
       </c>
       <c r="L88" s="0">
         <v>1050</v>
@@ -9935,10 +9446,10 @@
         <v>4.0899999999999999</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>986</v>
+        <v>837</v>
       </c>
       <c r="L89" s="0">
         <v>2069</v>
@@ -10003,10 +9514,10 @@
         <v>3.4300000000000002</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>987</v>
+        <v>838</v>
       </c>
       <c r="L90" s="0">
         <v>1549</v>
@@ -10071,10 +9582,10 @@
         <v>3.2799999999999998</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>988</v>
+        <v>839</v>
       </c>
       <c r="L91" s="0">
         <v>1469</v>
@@ -10139,10 +9650,10 @@
         <v>5.3799999999999999</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>989</v>
+        <v>840</v>
       </c>
       <c r="L92" s="0">
         <v>2064</v>
@@ -10207,10 +9718,10 @@
         <v>3.7999999999999998</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>990</v>
+        <v>841</v>
       </c>
       <c r="L93" s="0">
         <v>1371</v>
@@ -10275,10 +9786,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>991</v>
+        <v>842</v>
       </c>
       <c r="L94" s="0">
         <v>2056</v>
@@ -10343,10 +9854,10 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>992</v>
+        <v>843</v>
       </c>
       <c r="L95" s="0">
         <v>2060</v>
@@ -10411,10 +9922,10 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>993</v>
+        <v>844</v>
       </c>
       <c r="L96" s="0">
         <v>1500</v>
@@ -10479,10 +9990,10 @@
         <v>3.5</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>994</v>
+        <v>845</v>
       </c>
       <c r="L97" s="0">
         <v>1148</v>
@@ -10547,10 +10058,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>995</v>
+        <v>846</v>
       </c>
       <c r="L98" s="0">
         <v>1035</v>
@@ -10615,10 +10126,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>996</v>
+        <v>847</v>
       </c>
       <c r="L99" s="0">
         <v>1503</v>
@@ -10683,10 +10194,10 @@
         <v>7.2199999999999998</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>788</v>
+        <v>748</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>997</v>
+        <v>848</v>
       </c>
       <c r="L100" s="0">
         <v>2132</v>
@@ -10751,10 +10262,10 @@
         <v>2.8500000000000001</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>789</v>
+        <v>749</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>998</v>
+        <v>849</v>
       </c>
       <c r="L101" s="0">
         <v>2057</v>
@@ -10819,10 +10330,10 @@
         <v>6.8600000000000003</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>790</v>
+        <v>748</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>999</v>
+        <v>850</v>
       </c>
       <c r="L102" s="0">
         <v>1239</v>
@@ -10887,10 +10398,10 @@
         <v>3.5499999999999998</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>1000</v>
+        <v>851</v>
       </c>
       <c r="L103" s="0">
         <v>1554</v>
@@ -10955,10 +10466,10 @@
         <v>5.9900000000000002</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>1001</v>
+        <v>852</v>
       </c>
       <c r="L104" s="0">
         <v>1853</v>
@@ -11023,10 +10534,10 @@
         <v>3.8100000000000001</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>1002</v>
+        <v>853</v>
       </c>
       <c r="L105" s="0">
         <v>1330</v>
@@ -11091,10 +10602,10 @@
         <v>4.3700000000000001</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>1003</v>
+        <v>854</v>
       </c>
       <c r="L106" s="0">
         <v>532</v>
@@ -11159,10 +10670,10 @@
         <v>2.52</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>1004</v>
+        <v>855</v>
       </c>
       <c r="L107" s="0">
         <v>2006</v>
@@ -11227,10 +10738,10 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>1005</v>
+        <v>856</v>
       </c>
       <c r="L108" s="0">
         <v>1865</v>
@@ -11295,10 +10806,10 @@
         <v>3.21</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>1006</v>
+        <v>857</v>
       </c>
       <c r="L109" s="0">
         <v>1897</v>
@@ -11363,10 +10874,10 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>1007</v>
+        <v>858</v>
       </c>
       <c r="L110" s="0">
         <v>805</v>
@@ -11431,10 +10942,10 @@
         <v>5.8399999999999999</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>1008</v>
+        <v>859</v>
       </c>
       <c r="L111" s="0">
         <v>2390</v>
@@ -11499,10 +11010,10 @@
         <v>3.52</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>794</v>
+        <v>748</v>
       </c>
       <c r="K112" s="0" t="s">
-        <v>1009</v>
+        <v>860</v>
       </c>
       <c r="L112" s="0">
         <v>1724</v>
@@ -11567,10 +11078,10 @@
         <v>6.1799999999999997</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>1010</v>
+        <v>861</v>
       </c>
       <c r="L113" s="0">
         <v>2268</v>
@@ -11635,10 +11146,10 @@
         <v>2.6299999999999999</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>1011</v>
+        <v>862</v>
       </c>
       <c r="L114" s="0">
         <v>2047</v>
@@ -11703,10 +11214,10 @@
         <v>4.4199999999999999</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>1012</v>
+        <v>863</v>
       </c>
       <c r="L115" s="0">
         <v>1498</v>
@@ -11771,10 +11282,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>1013</v>
+        <v>864</v>
       </c>
       <c r="L116" s="0">
         <v>1509</v>
@@ -11839,10 +11350,10 @@
         <v>3.8399999999999999</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>1014</v>
+        <v>865</v>
       </c>
       <c r="L117" s="0">
         <v>1521</v>
@@ -11907,10 +11418,10 @@
         <v>3.96</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>1015</v>
+        <v>866</v>
       </c>
       <c r="L118" s="0">
         <v>1428</v>
@@ -11975,10 +11486,10 @@
         <v>6.8200000000000003</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>1016</v>
+        <v>867</v>
       </c>
       <c r="L119" s="0">
         <v>2260</v>
@@ -12043,10 +11554,10 @@
         <v>2.6000000000000001</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>1017</v>
+        <v>868</v>
       </c>
       <c r="L120" s="0">
         <v>1885</v>
@@ -12111,10 +11622,10 @@
         <v>3.6400000000000001</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>1018</v>
+        <v>869</v>
       </c>
       <c r="L121" s="0">
         <v>1176</v>
@@ -12179,10 +11690,10 @@
         <v>3.2200000000000002</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K122" s="0" t="s">
-        <v>1019</v>
+        <v>870</v>
       </c>
       <c r="L122" s="0">
         <v>2023</v>
@@ -12247,10 +11758,10 @@
         <v>2.7799999999999998</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K123" s="0" t="s">
-        <v>1020</v>
+        <v>871</v>
       </c>
       <c r="L123" s="0">
         <v>1884</v>
@@ -12315,10 +11826,10 @@
         <v>3.8900000000000001</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>1021</v>
+        <v>872</v>
       </c>
       <c r="L124" s="0">
         <v>1517</v>
@@ -12383,10 +11894,10 @@
         <v>2.1400000000000001</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>1022</v>
+        <v>873</v>
       </c>
       <c r="L125" s="0">
         <v>1281</v>
@@ -12451,10 +11962,10 @@
         <v>2.75</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>1023</v>
+        <v>874</v>
       </c>
       <c r="L126" s="0">
         <v>1913</v>
@@ -12519,10 +12030,10 @@
         <v>1.3799999999999999</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>1024</v>
+        <v>875</v>
       </c>
       <c r="L127" s="0">
         <v>161</v>
@@ -12587,10 +12098,10 @@
         <v>3.21</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="K128" s="0" t="s">
-        <v>1025</v>
+        <v>876</v>
       </c>
       <c r="L128" s="0">
         <v>1421</v>
@@ -12655,10 +12166,10 @@
         <v>2.5600000000000001</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>1026</v>
+        <v>877</v>
       </c>
       <c r="L129" s="0">
         <v>2017</v>
@@ -12723,10 +12234,10 @@
         <v>4.1799999999999997</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="K130" s="0" t="s">
-        <v>1027</v>
+        <v>878</v>
       </c>
       <c r="L130" s="0">
         <v>1728</v>
@@ -12791,10 +12302,10 @@
         <v>3.02</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>1028</v>
+        <v>879</v>
       </c>
       <c r="L131" s="0">
         <v>1902</v>
@@ -12859,10 +12370,10 @@
         <v>2.71</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K132" s="0" t="s">
-        <v>1029</v>
+        <v>880</v>
       </c>
       <c r="L132" s="0">
         <v>1554</v>
@@ -12927,10 +12438,10 @@
         <v>2.52</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>1030</v>
+        <v>881</v>
       </c>
       <c r="L133" s="0">
         <v>1869</v>
@@ -12995,10 +12506,10 @@
         <v>3.6899999999999999</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K134" s="0" t="s">
-        <v>1031</v>
+        <v>882</v>
       </c>
       <c r="L134" s="0">
         <v>1526</v>
@@ -13063,10 +12574,10 @@
         <v>3.3399999999999999</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>1032</v>
+        <v>883</v>
       </c>
       <c r="L135" s="0">
         <v>1506</v>
@@ -13131,10 +12642,10 @@
         <v>3.5600000000000001</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>1033</v>
+        <v>884</v>
       </c>
       <c r="L136" s="0">
         <v>1183</v>
@@ -13199,10 +12710,10 @@
         <v>3.0899999999999999</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>1034</v>
+        <v>885</v>
       </c>
       <c r="L137" s="0">
         <v>2056</v>
@@ -13267,10 +12778,10 @@
         <v>3.0899999999999999</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>1035</v>
+        <v>886</v>
       </c>
       <c r="L138" s="0">
         <v>1267</v>
@@ -13335,10 +12846,10 @@
         <v>4.6600000000000001</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>798</v>
+        <v>748</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>1036</v>
+        <v>887</v>
       </c>
       <c r="L139" s="0">
         <v>735</v>
@@ -13403,10 +12914,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>798</v>
+        <v>748</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>1037</v>
+        <v>888</v>
       </c>
       <c r="L140" s="0">
         <v>1736</v>
@@ -13471,10 +12982,10 @@
         <v>3.7200000000000002</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>1038</v>
+        <v>889</v>
       </c>
       <c r="L141" s="0">
         <v>2119</v>
@@ -13539,10 +13050,10 @@
         <v>2.9900000000000002</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>800</v>
+        <v>748</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>1039</v>
+        <v>890</v>
       </c>
       <c r="L142" s="0">
         <v>1463</v>
@@ -13607,10 +13118,10 @@
         <v>3.1800000000000002</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>1040</v>
+        <v>891</v>
       </c>
       <c r="L143" s="0">
         <v>1481</v>
@@ -13675,10 +13186,10 @@
         <v>3.5600000000000001</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>1041</v>
+        <v>892</v>
       </c>
       <c r="L144" s="0">
         <v>875</v>
@@ -13743,10 +13254,10 @@
         <v>4.3700000000000001</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>1042</v>
+        <v>893</v>
       </c>
       <c r="L145" s="0">
         <v>1739</v>
@@ -13811,10 +13322,10 @@
         <v>1.48</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>802</v>
+        <v>748</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>1043</v>
+        <v>894</v>
       </c>
       <c r="L146" s="0">
         <v>770</v>
@@ -13879,10 +13390,10 @@
         <v>2.3999999999999999</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>1044</v>
+        <v>895</v>
       </c>
       <c r="L147" s="0">
         <v>1365</v>
@@ -13947,10 +13458,10 @@
         <v>2.6200000000000001</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>1045</v>
+        <v>896</v>
       </c>
       <c r="L148" s="0">
         <v>2022</v>
@@ -14015,10 +13526,10 @@
         <v>6.1200000000000001</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>804</v>
+        <v>748</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>1046</v>
+        <v>897</v>
       </c>
       <c r="L149" s="0">
         <v>1106</v>
@@ -14083,10 +13594,10 @@
         <v>3.8599999999999999</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>805</v>
+        <v>749</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>1047</v>
+        <v>898</v>
       </c>
       <c r="L150" s="0">
         <v>1029</v>
@@ -14151,10 +13662,10 @@
         <v>2.1899999999999999</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>806</v>
+        <v>748</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>1048</v>
+        <v>899</v>
       </c>
       <c r="L151" s="0">
         <v>819</v>
@@ -14219,10 +13730,10 @@
         <v>1.79</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>807</v>
+        <v>749</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>1049</v>
+        <v>900</v>
       </c>
       <c r="L152" s="0">
         <v>1885</v>
@@ -14287,10 +13798,10 @@
         <v>4.9900000000000002</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>807</v>
+        <v>749</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>1050</v>
+        <v>901</v>
       </c>
       <c r="L153" s="0">
         <v>1495</v>
@@ -14355,10 +13866,10 @@
         <v>3.79</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>807</v>
+        <v>749</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>1051</v>
+        <v>902</v>
       </c>
       <c r="L154" s="0">
         <v>1498</v>
@@ -14423,10 +13934,10 @@
         <v>2.29</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>807</v>
+        <v>749</v>
       </c>
       <c r="K155" s="0" t="s">
-        <v>1052</v>
+        <v>903</v>
       </c>
       <c r="L155" s="0">
         <v>1901</v>
@@ -14491,10 +14002,10 @@
         <v>3.75</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>808</v>
+        <v>748</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>1053</v>
+        <v>904</v>
       </c>
       <c r="L156" s="0">
         <v>1274</v>
@@ -14559,10 +14070,10 @@
         <v>2.1000000000000001</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>1054</v>
+        <v>905</v>
       </c>
       <c r="L157" s="0">
         <v>1912</v>
@@ -14627,10 +14138,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="K158" s="0" t="s">
-        <v>1055</v>
+        <v>906</v>
       </c>
       <c r="L158" s="0">
         <v>1909</v>
@@ -14695,10 +14206,10 @@
         <v>2.4399999999999999</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="K159" s="0" t="s">
-        <v>1056</v>
+        <v>907</v>
       </c>
       <c r="L159" s="0">
         <v>1541</v>
@@ -14763,10 +14274,10 @@
         <v>3.8100000000000001</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="K160" s="0" t="s">
-        <v>1057</v>
+        <v>908</v>
       </c>
       <c r="L160" s="0">
         <v>2262</v>
@@ -14831,10 +14342,10 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>810</v>
+        <v>748</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>1058</v>
+        <v>909</v>
       </c>
       <c r="L161" s="0">
         <v>1905</v>
@@ -14899,10 +14410,10 @@
         <v>7.46</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>1059</v>
+        <v>910</v>
       </c>
       <c r="L162" s="0">
         <v>1919</v>
@@ -14967,10 +14478,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>1060</v>
+        <v>911</v>
       </c>
       <c r="L163" s="0">
         <v>1400</v>
@@ -15035,10 +14546,10 @@
         <v>2.4399999999999999</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K164" s="0" t="s">
-        <v>1061</v>
+        <v>912</v>
       </c>
       <c r="L164" s="0">
         <v>2057</v>
@@ -15103,10 +14614,10 @@
         <v>3.6200000000000001</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>1062</v>
+        <v>913</v>
       </c>
       <c r="L165" s="0">
         <v>938</v>
@@ -15171,10 +14682,10 @@
         <v>2.1600000000000001</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K166" s="0" t="s">
-        <v>1063</v>
+        <v>914</v>
       </c>
       <c r="L166" s="0">
         <v>1911</v>
@@ -15239,10 +14750,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K167" s="0" t="s">
-        <v>1064</v>
+        <v>915</v>
       </c>
       <c r="L167" s="0">
         <v>1902</v>
@@ -15307,10 +14818,10 @@
         <v>3.3100000000000001</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K168" s="0" t="s">
-        <v>1065</v>
+        <v>916</v>
       </c>
       <c r="L168" s="0">
         <v>1162</v>
@@ -15375,10 +14886,10 @@
         <v>3.4300000000000002</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
       <c r="K169" s="0" t="s">
-        <v>1066</v>
+        <v>917</v>
       </c>
       <c r="L169" s="0">
         <v>1141</v>
@@ -15443,10 +14954,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
       <c r="K170" s="0" t="s">
-        <v>1067</v>
+        <v>918</v>
       </c>
       <c r="L170" s="0">
         <v>196</v>
@@ -15511,10 +15022,10 @@
         <v>3.75</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
       <c r="K171" s="0" t="s">
-        <v>1068</v>
+        <v>919</v>
       </c>
       <c r="L171" s="0">
         <v>1714</v>
@@ -15579,10 +15090,10 @@
         <v>2.9100000000000001</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>813</v>
+        <v>749</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>1069</v>
+        <v>920</v>
       </c>
       <c r="L172" s="0">
         <v>980</v>
@@ -15647,10 +15158,10 @@
         <v>4.75</v>
       </c>
       <c r="J173" s="0" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="K173" s="0" t="s">
-        <v>1070</v>
+        <v>921</v>
       </c>
       <c r="L173" s="0">
         <v>1667</v>
@@ -15715,10 +15226,10 @@
         <v>2.9300000000000002</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>815</v>
+        <v>749</v>
       </c>
       <c r="K174" s="0" t="s">
-        <v>1071</v>
+        <v>922</v>
       </c>
       <c r="L174" s="0">
         <v>1257</v>
@@ -15783,10 +15294,10 @@
         <v>3.2799999999999998</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>815</v>
+        <v>749</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>1072</v>
+        <v>923</v>
       </c>
       <c r="L175" s="0">
         <v>1742</v>
@@ -15851,10 +15362,10 @@
         <v>2.4199999999999999</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>815</v>
+        <v>749</v>
       </c>
       <c r="K176" s="0" t="s">
-        <v>1073</v>
+        <v>924</v>
       </c>
       <c r="L176" s="0">
         <v>959</v>
@@ -15919,10 +15430,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>1074</v>
+        <v>925</v>
       </c>
       <c r="L177" s="0">
         <v>2035</v>
@@ -15987,10 +15498,10 @@
         <v>2.9399999999999999</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="K178" s="0" t="s">
-        <v>1075</v>
+        <v>926</v>
       </c>
       <c r="L178" s="0">
         <v>1351</v>
@@ -16055,10 +15566,10 @@
         <v>3.96</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="K179" s="0" t="s">
-        <v>1076</v>
+        <v>927</v>
       </c>
       <c r="L179" s="0">
         <v>392</v>
@@ -16123,10 +15634,10 @@
         <v>2.7999999999999998</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="K180" s="0" t="s">
-        <v>1077</v>
+        <v>928</v>
       </c>
       <c r="L180" s="0">
         <v>1288</v>
@@ -16191,10 +15702,10 @@
         <v>2.6800000000000002</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>817</v>
+        <v>749</v>
       </c>
       <c r="K181" s="0" t="s">
-        <v>1078</v>
+        <v>929</v>
       </c>
       <c r="L181" s="0">
         <v>1853</v>
@@ -16259,10 +15770,10 @@
         <v>3.1200000000000001</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>818</v>
+        <v>748</v>
       </c>
       <c r="K182" s="0" t="s">
-        <v>1079</v>
+        <v>930</v>
       </c>
       <c r="L182" s="0">
         <v>2049</v>
@@ -16327,10 +15838,10 @@
         <v>3.1200000000000001</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>819</v>
+        <v>749</v>
       </c>
       <c r="K183" s="0" t="s">
-        <v>1080</v>
+        <v>931</v>
       </c>
       <c r="L183" s="0">
         <v>1539</v>
@@ -16395,10 +15906,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>819</v>
+        <v>749</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>1081</v>
+        <v>932</v>
       </c>
       <c r="L184" s="0">
         <v>2065</v>
@@ -16463,10 +15974,10 @@
         <v>5.4400000000000004</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>820</v>
+        <v>748</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>1082</v>
+        <v>933</v>
       </c>
       <c r="L185" s="0">
         <v>2132</v>
@@ -16531,10 +16042,10 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>820</v>
+        <v>748</v>
       </c>
       <c r="K186" s="0" t="s">
-        <v>1083</v>
+        <v>934</v>
       </c>
       <c r="L186" s="0">
         <v>1246</v>
@@ -16599,10 +16110,10 @@
         <v>3.04</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>1084</v>
+        <v>935</v>
       </c>
       <c r="L187" s="0">
         <v>791</v>
@@ -16667,10 +16178,10 @@
         <v>2.21</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K188" s="0" t="s">
-        <v>1085</v>
+        <v>936</v>
       </c>
       <c r="L188" s="0">
         <v>1015</v>
@@ -16735,10 +16246,10 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>1086</v>
+        <v>937</v>
       </c>
       <c r="L189" s="0">
         <v>1309</v>
@@ -16803,10 +16314,10 @@
         <v>2.3799999999999999</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K190" s="0" t="s">
-        <v>1087</v>
+        <v>938</v>
       </c>
       <c r="L190" s="0">
         <v>1893</v>
@@ -16871,10 +16382,10 @@
         <v>3.1000000000000001</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K191" s="0" t="s">
-        <v>1088</v>
+        <v>939</v>
       </c>
       <c r="L191" s="0">
         <v>812</v>
@@ -16939,10 +16450,10 @@
         <v>2.8599999999999999</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>1089</v>
+        <v>940</v>
       </c>
       <c r="L192" s="0">
         <v>455</v>
@@ -17007,10 +16518,10 @@
         <v>2.8999999999999999</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K193" s="0" t="s">
-        <v>1090</v>
+        <v>941</v>
       </c>
       <c r="L193" s="0">
         <v>2065</v>
@@ -17075,10 +16586,10 @@
         <v>3.6400000000000001</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>822</v>
+        <v>748</v>
       </c>
       <c r="K194" s="0" t="s">
-        <v>1091</v>
+        <v>942</v>
       </c>
       <c r="L194" s="0">
         <v>763</v>
@@ -17143,10 +16654,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>822</v>
+        <v>748</v>
       </c>
       <c r="K195" s="0" t="s">
-        <v>1092</v>
+        <v>943</v>
       </c>
       <c r="L195" s="0">
         <v>1127</v>
@@ -17211,10 +16722,10 @@
         <v>2.77</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>823</v>
+        <v>749</v>
       </c>
       <c r="K196" s="0" t="s">
-        <v>1093</v>
+        <v>944</v>
       </c>
       <c r="L196" s="0">
         <v>1520</v>
@@ -17279,10 +16790,10 @@
         <v>4.0300000000000002</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>824</v>
+        <v>748</v>
       </c>
       <c r="K197" s="0" t="s">
-        <v>1094</v>
+        <v>945</v>
       </c>
       <c r="L197" s="0">
         <v>1092</v>
@@ -17347,10 +16858,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>824</v>
+        <v>748</v>
       </c>
       <c r="K198" s="0" t="s">
-        <v>1095</v>
+        <v>946</v>
       </c>
       <c r="L198" s="0">
         <v>854</v>
@@ -17415,10 +16926,10 @@
         <v>5.5599999999999996</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>825</v>
+        <v>749</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>1096</v>
+        <v>947</v>
       </c>
       <c r="L199" s="0">
         <v>2291</v>
@@ -17483,10 +16994,10 @@
         <v>2.3599999999999999</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>825</v>
+        <v>749</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>1097</v>
+        <v>948</v>
       </c>
       <c r="L200" s="0">
         <v>1169</v>
@@ -17551,10 +17062,10 @@
         <v>2.7799999999999998</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>825</v>
+        <v>749</v>
       </c>
       <c r="K201" s="0" t="s">
-        <v>1098</v>
+        <v>949</v>
       </c>
       <c r="L201" s="0">
         <v>567</v>
@@ -17619,10 +17130,10 @@
         <v>3.7999999999999998</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>826</v>
+        <v>748</v>
       </c>
       <c r="K202" s="0" t="s">
-        <v>1099</v>
+        <v>950</v>
       </c>
       <c r="L202" s="0">
         <v>119</v>
@@ -17687,10 +17198,10 @@
         <v>1.74</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>827</v>
+        <v>749</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>1100</v>
+        <v>951</v>
       </c>
       <c r="L203" s="0">
         <v>889</v>
@@ -17755,10 +17266,10 @@
         <v>1.9099999999999999</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>828</v>
+        <v>748</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>1101</v>
+        <v>952</v>
       </c>
       <c r="L204" s="0">
         <v>1407</v>
@@ -17823,10 +17334,10 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>828</v>
+        <v>748</v>
       </c>
       <c r="K205" s="0" t="s">
-        <v>1102</v>
+        <v>953</v>
       </c>
       <c r="L205" s="0">
         <v>518</v>
@@ -17891,10 +17402,10 @@
         <v>3.2400000000000002</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>829</v>
+        <v>749</v>
       </c>
       <c r="K206" s="0" t="s">
-        <v>1103</v>
+        <v>954</v>
       </c>
       <c r="L206" s="0">
         <v>154</v>
@@ -17959,10 +17470,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>830</v>
+        <v>748</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>1104</v>
+        <v>955</v>
       </c>
       <c r="L207" s="0">
         <v>840</v>
@@ -18027,10 +17538,10 @@
         <v>2.7599999999999998</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>831</v>
+        <v>749</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>1105</v>
+        <v>956</v>
       </c>
       <c r="L208" s="0">
         <v>441</v>
@@ -18095,10 +17606,10 @@
         <v>2.7599999999999998</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>832</v>
+        <v>748</v>
       </c>
       <c r="K209" s="0" t="s">
-        <v>1106</v>
+        <v>957</v>
       </c>
       <c r="L209" s="0">
         <v>1596</v>
@@ -18163,10 +17674,10 @@
         <v>3.04</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>833</v>
+        <v>749</v>
       </c>
       <c r="K210" s="0" t="s">
-        <v>1107</v>
+        <v>958</v>
       </c>
       <c r="L210" s="0">
         <v>1620</v>
@@ -18231,10 +17742,10 @@
         <v>1.51</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>833</v>
+        <v>749</v>
       </c>
       <c r="K211" s="0" t="s">
-        <v>1108</v>
+        <v>959</v>
       </c>
       <c r="L211" s="0">
         <v>1860</v>
@@ -18299,10 +17810,10 @@
         <v>1.8400000000000001</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>833</v>
+        <v>749</v>
       </c>
       <c r="K212" s="0" t="s">
-        <v>1109</v>
+        <v>960</v>
       </c>
       <c r="L212" s="0">
         <v>1252</v>
@@ -18367,10 +17878,10 @@
         <v>1.05</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>834</v>
+        <v>748</v>
       </c>
       <c r="K213" s="0" t="s">
-        <v>1110</v>
+        <v>961</v>
       </c>
       <c r="L213" s="0">
         <v>175</v>
@@ -18435,10 +17946,10 @@
         <v>2.7400000000000002</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>834</v>
+        <v>748</v>
       </c>
       <c r="K214" s="0" t="s">
-        <v>1111</v>
+        <v>962</v>
       </c>
       <c r="L214" s="0">
         <v>847</v>
@@ -18503,10 +18014,10 @@
         <v>4.0899999999999999</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>834</v>
+        <v>748</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>1112</v>
+        <v>963</v>
       </c>
       <c r="L215" s="0">
         <v>826</v>
@@ -18571,10 +18082,10 @@
         <v>2.3999999999999999</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>835</v>
+        <v>749</v>
       </c>
       <c r="K216" s="0" t="s">
-        <v>1113</v>
+        <v>964</v>
       </c>
       <c r="L216" s="0">
         <v>1379</v>
@@ -18639,10 +18150,10 @@
         <v>1.8</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>835</v>
+        <v>749</v>
       </c>
       <c r="K217" s="0" t="s">
-        <v>1114</v>
+        <v>965</v>
       </c>
       <c r="L217" s="0">
         <v>1755</v>
@@ -18707,10 +18218,10 @@
         <v>1.8600000000000001</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>835</v>
+        <v>749</v>
       </c>
       <c r="K218" s="0" t="s">
-        <v>1115</v>
+        <v>966</v>
       </c>
       <c r="L218" s="0">
         <v>1686</v>
@@ -18775,10 +18286,10 @@
         <v>1.47</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>836</v>
+        <v>748</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>1116</v>
+        <v>967</v>
       </c>
       <c r="L219" s="0">
         <v>546</v>
@@ -18843,10 +18354,10 @@
         <v>2.29</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>837</v>
+        <v>749</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>1117</v>
+        <v>968</v>
       </c>
       <c r="L220" s="0">
         <v>1386</v>
@@ -18911,10 +18422,10 @@
         <v>1.78</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>837</v>
+        <v>749</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>1118</v>
+        <v>969</v>
       </c>
       <c r="L221" s="0">
         <v>1661</v>
@@ -18979,10 +18490,10 @@
         <v>2.1200000000000001</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>837</v>
+        <v>749</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>1119</v>
+        <v>970</v>
       </c>
       <c r="L222" s="0">
         <v>1509</v>
@@ -19047,10 +18558,10 @@
         <v>1.74</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>837</v>
+        <v>749</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>1120</v>
+        <v>971</v>
       </c>
       <c r="L223" s="0">
         <v>924</v>
@@ -19115,10 +18626,10 @@
         <v>3.9100000000000001</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>838</v>
+        <v>748</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>1121</v>
+        <v>972</v>
       </c>
       <c r="L224" s="0">
         <v>2160</v>
@@ -19183,10 +18694,10 @@
         <v>2.4199999999999999</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>1122</v>
+        <v>973</v>
       </c>
       <c r="L225" s="0">
         <v>679</v>
@@ -19251,10 +18762,10 @@
         <v>2.1099999999999999</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>1123</v>
+        <v>974</v>
       </c>
       <c r="L226" s="0">
         <v>735</v>
@@ -19319,10 +18830,10 @@
         <v>2.0899999999999999</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
       <c r="K227" s="0" t="s">
-        <v>1124</v>
+        <v>975</v>
       </c>
       <c r="L227" s="0">
         <v>686</v>
@@ -19387,10 +18898,10 @@
         <v>1.8</v>
       </c>
       <c r="J228" s="0" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
       <c r="K228" s="0" t="s">
-        <v>1125</v>
+        <v>976</v>
       </c>
       <c r="L228" s="0">
         <v>973</v>
@@ -19455,10 +18966,10 @@
         <v>2.25</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>840</v>
+        <v>748</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>1126</v>
+        <v>977</v>
       </c>
       <c r="L229" s="0">
         <v>1881</v>
@@ -19523,10 +19034,10 @@
         <v>4.71</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>840</v>
+        <v>748</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>1127</v>
+        <v>978</v>
       </c>
       <c r="L230" s="0">
         <v>952</v>
@@ -19591,10 +19102,10 @@
         <v>1.99</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>841</v>
+        <v>749</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>1128</v>
+        <v>979</v>
       </c>
       <c r="L231" s="0">
         <v>1085</v>
@@ -19659,10 +19170,10 @@
         <v>2.5</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>841</v>
+        <v>749</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>1129</v>
+        <v>980</v>
       </c>
       <c r="L232" s="0">
         <v>405</v>
@@ -19727,10 +19238,10 @@
         <v>3.1699999999999999</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>842</v>
+        <v>748</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>1130</v>
+        <v>981</v>
       </c>
       <c r="L233" s="0">
         <v>1337</v>
@@ -19795,10 +19306,10 @@
         <v>1.45</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>843</v>
+        <v>749</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>1131</v>
+        <v>982</v>
       </c>
       <c r="L234" s="0">
         <v>994</v>
@@ -19863,10 +19374,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>1132</v>
+        <v>983</v>
       </c>
       <c r="L235" s="0">
         <v>2074</v>
@@ -19931,10 +19442,10 @@
         <v>1.3700000000000001</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>1133</v>
+        <v>984</v>
       </c>
       <c r="L236" s="0">
         <v>1001</v>
@@ -19999,10 +19510,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>846</v>
+        <v>748</v>
       </c>
       <c r="K237" s="0" t="s">
-        <v>1134</v>
+        <v>985</v>
       </c>
       <c r="L237" s="0">
         <v>987</v>
@@ -20067,10 +19578,10 @@
         <v>1.3700000000000001</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>847</v>
+        <v>749</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>1135</v>
+        <v>986</v>
       </c>
       <c r="L238" s="0">
         <v>861</v>
@@ -20135,10 +19646,10 @@
         <v>2.8999999999999999</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>848</v>
+        <v>748</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>1136</v>
+        <v>987</v>
       </c>
       <c r="L239" s="0">
         <v>2287</v>
@@ -20203,10 +19714,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>848</v>
+        <v>748</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>1137</v>
+        <v>988</v>
       </c>
       <c r="L240" s="0">
         <v>539</v>
@@ -20271,10 +19782,10 @@
         <v>2.48</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>848</v>
+        <v>748</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>1138</v>
+        <v>989</v>
       </c>
       <c r="L241" s="0">
         <v>945</v>
@@ -20339,10 +19850,10 @@
         <v>1.97</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>848</v>
+        <v>748</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>1139</v>
+        <v>990</v>
       </c>
       <c r="L242" s="0">
         <v>1218</v>
@@ -20407,10 +19918,10 @@
         <v>3.1499999999999999</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>1140</v>
+        <v>991</v>
       </c>
       <c r="L243" s="0">
         <v>287</v>
@@ -20475,10 +19986,10 @@
         <v>2.8900000000000001</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>1141</v>
+        <v>947</v>
       </c>
       <c r="L244" s="0">
         <v>2262</v>
@@ -20543,10 +20054,10 @@
         <v>1.73</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>1142</v>
+        <v>992</v>
       </c>
       <c r="L245" s="0">
         <v>658</v>
@@ -20611,10 +20122,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="K246" s="0" t="s">
-        <v>1143</v>
+        <v>993</v>
       </c>
       <c r="L246" s="0">
         <v>672</v>
@@ -20679,10 +20190,10 @@
         <v>2.6899999999999999</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>1144</v>
+        <v>994</v>
       </c>
       <c r="L247" s="0">
         <v>252</v>
@@ -20747,10 +20258,10 @@
         <v>2.9199999999999999</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>1145</v>
+        <v>995</v>
       </c>
       <c r="L248" s="0">
         <v>1295</v>
@@ -20815,10 +20326,10 @@
         <v>2.6099999999999999</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>1146</v>
+        <v>996</v>
       </c>
       <c r="L249" s="0">
         <v>936</v>
@@ -20883,10 +20394,10 @@
         <v>1.02</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>1147</v>
+        <v>997</v>
       </c>
       <c r="L250" s="0">
         <v>1078</v>
@@ -20951,10 +20462,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>1148</v>
+        <v>998</v>
       </c>
       <c r="L251" s="0">
         <v>903</v>
@@ -21019,10 +20530,10 @@
         <v>2.6099999999999999</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>851</v>
+        <v>749</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>1149</v>
+        <v>999</v>
       </c>
       <c r="L252" s="0">
         <v>2375</v>
@@ -21087,10 +20598,10 @@
         <v>1.04</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>852</v>
+        <v>748</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="L253" s="0">
         <v>721</v>
@@ -21155,10 +20666,10 @@
         <v>2.7200000000000002</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>853</v>
+        <v>749</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>1151</v>
+        <v>1001</v>
       </c>
       <c r="L254" s="0">
         <v>240</v>
@@ -21223,10 +20734,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>853</v>
+        <v>749</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>1152</v>
+        <v>1002</v>
       </c>
       <c r="L255" s="0">
         <v>1742</v>
@@ -21291,10 +20802,10 @@
         <v>2.5</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>853</v>
+        <v>749</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>1153</v>
+        <v>1003</v>
       </c>
       <c r="L256" s="0">
         <v>245</v>
@@ -21359,10 +20870,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>853</v>
+        <v>749</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>1154</v>
+        <v>1004</v>
       </c>
       <c r="L257" s="0">
         <v>1742</v>
@@ -21427,10 +20938,10 @@
         <v>1.52</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>1155</v>
+        <v>1005</v>
       </c>
       <c r="L258" s="0">
         <v>1476</v>
@@ -21495,10 +21006,10 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>1156</v>
+        <v>1006</v>
       </c>
       <c r="L259" s="0">
         <v>449</v>
@@ -21563,10 +21074,10 @@
         <v>1.7</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>1157</v>
+        <v>1007</v>
       </c>
       <c r="L260" s="0">
         <v>2263</v>
@@ -21631,10 +21142,10 @@
         <v>1.0800000000000001</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="K261" s="0" t="s">
-        <v>1158</v>
+        <v>1008</v>
       </c>
       <c r="L261" s="0">
         <v>231</v>
@@ -21699,10 +21210,10 @@
         <v>1.29</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="K262" s="0" t="s">
-        <v>1159</v>
+        <v>1009</v>
       </c>
       <c r="L262" s="0">
         <v>749</v>
@@ -21767,10 +21278,10 @@
         <v>2.0800000000000001</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>855</v>
+        <v>749</v>
       </c>
       <c r="K263" s="0" t="s">
-        <v>1160</v>
+        <v>1010</v>
       </c>
       <c r="L263" s="0">
         <v>427</v>
@@ -21835,10 +21346,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>856</v>
+        <v>748</v>
       </c>
       <c r="K264" s="0" t="s">
-        <v>1161</v>
+        <v>1011</v>
       </c>
       <c r="L264" s="0">
         <v>1323</v>
@@ -21903,10 +21414,10 @@
         <v>1.8400000000000001</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>856</v>
+        <v>748</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>1162</v>
+        <v>1012</v>
       </c>
       <c r="L265" s="0">
         <v>931</v>
@@ -21971,10 +21482,10 @@
         <v>1.6599999999999999</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>856</v>
+        <v>748</v>
       </c>
       <c r="K266" s="0" t="s">
-        <v>1163</v>
+        <v>1013</v>
       </c>
       <c r="L266" s="0">
         <v>756</v>
@@ -22039,10 +21550,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>856</v>
+        <v>748</v>
       </c>
       <c r="K267" s="0" t="s">
-        <v>1164</v>
+        <v>1014</v>
       </c>
       <c r="L267" s="0">
         <v>1190</v>
@@ -22107,10 +21618,10 @@
         <v>2.6800000000000002</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>857</v>
+        <v>749</v>
       </c>
       <c r="K268" s="0" t="s">
-        <v>1165</v>
+        <v>1015</v>
       </c>
       <c r="L268" s="0">
         <v>168</v>
@@ -22175,10 +21686,10 @@
         <v>1.8</v>
       </c>
       <c r="J269" s="0" t="s">
-        <v>857</v>
+        <v>749</v>
       </c>
       <c r="K269" s="0" t="s">
-        <v>1166</v>
+        <v>783</v>
       </c>
       <c r="L269" s="0">
         <v>452</v>
@@ -22243,10 +21754,10 @@
         <v>1.3200000000000001</v>
       </c>
       <c r="J270" s="0" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="K270" s="0" t="s">
-        <v>1167</v>
+        <v>1016</v>
       </c>
       <c r="L270" s="0">
         <v>1225</v>
@@ -22311,10 +21822,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J271" s="0" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="K271" s="0" t="s">
-        <v>1168</v>
+        <v>1017</v>
       </c>
       <c r="L271" s="0">
         <v>343</v>
@@ -22379,10 +21890,10 @@
         <v>2.27</v>
       </c>
       <c r="J272" s="0" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="K272" s="0" t="s">
-        <v>1169</v>
+        <v>1018</v>
       </c>
       <c r="L272" s="0">
         <v>553</v>
@@ -22447,10 +21958,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J273" s="0" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="K273" s="0" t="s">
-        <v>1170</v>
+        <v>1019</v>
       </c>
       <c r="L273" s="0">
         <v>1486</v>
@@ -22515,10 +22026,10 @@
         <v>1.7</v>
       </c>
       <c r="J274" s="0" t="s">
-        <v>859</v>
+        <v>749</v>
       </c>
       <c r="K274" s="0" t="s">
-        <v>1171</v>
+        <v>1020</v>
       </c>
       <c r="L274" s="0">
         <v>308</v>
@@ -22583,10 +22094,10 @@
         <v>0.87</v>
       </c>
       <c r="J275" s="0" t="s">
-        <v>860</v>
+        <v>748</v>
       </c>
       <c r="K275" s="0" t="s">
-        <v>1172</v>
+        <v>1021</v>
       </c>
       <c r="L275" s="0">
         <v>651</v>
@@ -22651,10 +22162,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="J276" s="0" t="s">
-        <v>860</v>
+        <v>748</v>
       </c>
       <c r="K276" s="0" t="s">
-        <v>1173</v>
+        <v>1022</v>
       </c>
       <c r="L276" s="0">
         <v>1134</v>
@@ -22719,10 +22230,10 @@
         <v>1.6899999999999999</v>
       </c>
       <c r="J277" s="0" t="s">
-        <v>861</v>
+        <v>749</v>
       </c>
       <c r="K277" s="0" t="s">
-        <v>1174</v>
+        <v>1023</v>
       </c>
       <c r="L277" s="0">
         <v>301</v>
@@ -22787,10 +22298,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J278" s="0" t="s">
-        <v>862</v>
+        <v>748</v>
       </c>
       <c r="K278" s="0" t="s">
-        <v>1175</v>
+        <v>1024</v>
       </c>
       <c r="L278" s="0">
         <v>882</v>
@@ -22855,10 +22366,10 @@
         <v>1.4099999999999999</v>
       </c>
       <c r="J279" s="0" t="s">
-        <v>862</v>
+        <v>748</v>
       </c>
       <c r="K279" s="0" t="s">
-        <v>1176</v>
+        <v>1025</v>
       </c>
       <c r="L279" s="0">
         <v>1022</v>
@@ -22923,10 +22434,10 @@
         <v>1.95</v>
       </c>
       <c r="J280" s="0" t="s">
-        <v>863</v>
+        <v>749</v>
       </c>
       <c r="K280" s="0" t="s">
-        <v>1177</v>
+        <v>1026</v>
       </c>
       <c r="L280" s="0">
         <v>483</v>
@@ -22991,10 +22502,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J281" s="0" t="s">
-        <v>864</v>
+        <v>748</v>
       </c>
       <c r="K281" s="0" t="s">
-        <v>1178</v>
+        <v>1027</v>
       </c>
       <c r="L281" s="0">
         <v>140</v>
@@ -23059,10 +22570,10 @@
         <v>1.05</v>
       </c>
       <c r="J282" s="0" t="s">
-        <v>864</v>
+        <v>748</v>
       </c>
       <c r="K282" s="0" t="s">
-        <v>1179</v>
+        <v>1028</v>
       </c>
       <c r="L282" s="0">
         <v>28</v>
@@ -23127,10 +22638,10 @@
         <v>1.5</v>
       </c>
       <c r="J283" s="0" t="s">
-        <v>865</v>
+        <v>749</v>
       </c>
       <c r="K283" s="0" t="s">
-        <v>1180</v>
+        <v>1029</v>
       </c>
       <c r="L283" s="0">
         <v>665</v>
@@ -23195,10 +22706,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J284" s="0" t="s">
-        <v>865</v>
+        <v>749</v>
       </c>
       <c r="K284" s="0" t="s">
-        <v>1181</v>
+        <v>1030</v>
       </c>
       <c r="L284" s="0">
         <v>602</v>
@@ -23263,10 +22774,10 @@
         <v>1.22</v>
       </c>
       <c r="J285" s="0" t="s">
-        <v>865</v>
+        <v>749</v>
       </c>
       <c r="K285" s="0" t="s">
-        <v>1182</v>
+        <v>1031</v>
       </c>
       <c r="L285" s="0">
         <v>630</v>
@@ -23331,10 +22842,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J286" s="0" t="s">
-        <v>866</v>
+        <v>748</v>
       </c>
       <c r="K286" s="0" t="s">
-        <v>1183</v>
+        <v>1032</v>
       </c>
       <c r="L286" s="0">
         <v>1064</v>
@@ -23399,10 +22910,10 @@
         <v>2.6400000000000001</v>
       </c>
       <c r="J287" s="0" t="s">
-        <v>867</v>
+        <v>749</v>
       </c>
       <c r="K287" s="0" t="s">
-        <v>1184</v>
+        <v>1033</v>
       </c>
       <c r="L287" s="0">
         <v>126</v>
@@ -23467,10 +22978,10 @@
         <v>0.83999999999999997</v>
       </c>
       <c r="J288" s="0" t="s">
-        <v>867</v>
+        <v>749</v>
       </c>
       <c r="K288" s="0" t="s">
-        <v>1185</v>
+        <v>948</v>
       </c>
       <c r="L288" s="0">
         <v>637</v>
@@ -23535,10 +23046,10 @@
         <v>1.3899999999999999</v>
       </c>
       <c r="J289" s="0" t="s">
-        <v>867</v>
+        <v>749</v>
       </c>
       <c r="K289" s="0" t="s">
-        <v>1186</v>
+        <v>1034</v>
       </c>
       <c r="L289" s="0">
         <v>623</v>
@@ -23603,10 +23114,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J290" s="0" t="s">
-        <v>868</v>
+        <v>748</v>
       </c>
       <c r="K290" s="0" t="s">
-        <v>1187</v>
+        <v>1035</v>
       </c>
       <c r="L290" s="0">
         <v>371</v>
@@ -23671,10 +23182,10 @@
         <v>1.5900000000000001</v>
       </c>
       <c r="J291" s="0" t="s">
-        <v>868</v>
+        <v>748</v>
       </c>
       <c r="K291" s="0" t="s">
-        <v>1188</v>
+        <v>1036</v>
       </c>
       <c r="L291" s="0">
         <v>189</v>
@@ -23739,10 +23250,10 @@
         <v>2.52</v>
       </c>
       <c r="J292" s="0" t="s">
-        <v>869</v>
+        <v>749</v>
       </c>
       <c r="K292" s="0" t="s">
-        <v>1189</v>
+        <v>961</v>
       </c>
       <c r="L292" s="0">
         <v>2289</v>
@@ -23807,10 +23318,10 @@
         <v>1.53</v>
       </c>
       <c r="J293" s="0" t="s">
-        <v>869</v>
+        <v>749</v>
       </c>
       <c r="K293" s="0" t="s">
-        <v>1190</v>
+        <v>1037</v>
       </c>
       <c r="L293" s="0">
         <v>294</v>
@@ -23875,10 +23386,10 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J294" s="0" t="s">
-        <v>870</v>
+        <v>748</v>
       </c>
       <c r="K294" s="0" t="s">
-        <v>1191</v>
+        <v>1038</v>
       </c>
       <c r="L294" s="0">
         <v>707</v>
@@ -23943,10 +23454,10 @@
         <v>3.7799999999999998</v>
       </c>
       <c r="J295" s="0" t="s">
-        <v>870</v>
+        <v>748</v>
       </c>
       <c r="K295" s="0" t="s">
-        <v>1192</v>
+        <v>1039</v>
       </c>
       <c r="L295" s="0">
         <v>2601</v>
@@ -24011,10 +23522,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J296" s="0" t="s">
-        <v>870</v>
+        <v>748</v>
       </c>
       <c r="K296" s="0" t="s">
-        <v>1193</v>
+        <v>853</v>
       </c>
       <c r="L296" s="0">
         <v>504</v>
@@ -24079,10 +23590,10 @@
         <v>0.66000000000000003</v>
       </c>
       <c r="J297" s="0" t="s">
-        <v>870</v>
+        <v>748</v>
       </c>
       <c r="K297" s="0" t="s">
-        <v>1194</v>
+        <v>1040</v>
       </c>
       <c r="L297" s="0">
         <v>868</v>
@@ -24147,10 +23658,10 @@
         <v>1.23</v>
       </c>
       <c r="J298" s="0" t="s">
-        <v>871</v>
+        <v>749</v>
       </c>
       <c r="K298" s="0" t="s">
-        <v>1195</v>
+        <v>806</v>
       </c>
       <c r="L298" s="0">
         <v>616</v>
@@ -24215,10 +23726,10 @@
         <v>0.91000000000000003</v>
       </c>
       <c r="J299" s="0" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="K299" s="0" t="s">
-        <v>1196</v>
+        <v>1041</v>
       </c>
       <c r="L299" s="0">
         <v>917</v>
@@ -24283,10 +23794,10 @@
         <v>1.46</v>
       </c>
       <c r="J300" s="0" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="K300" s="0" t="s">
-        <v>1197</v>
+        <v>1042</v>
       </c>
       <c r="L300" s="0">
         <v>2028</v>
@@ -24351,10 +23862,10 @@
         <v>1.54</v>
       </c>
       <c r="J301" s="0" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="K301" s="0" t="s">
-        <v>1198</v>
+        <v>1043</v>
       </c>
       <c r="L301" s="0">
         <v>714</v>
@@ -24419,10 +23930,10 @@
         <v>1.53</v>
       </c>
       <c r="J302" s="0" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="K302" s="0" t="s">
-        <v>1199</v>
+        <v>1044</v>
       </c>
       <c r="L302" s="0">
         <v>182</v>
@@ -24487,10 +23998,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J303" s="0" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="K303" s="0" t="s">
-        <v>1200</v>
+        <v>1045</v>
       </c>
       <c r="L303" s="0">
         <v>511</v>
@@ -24555,10 +24066,10 @@
         <v>1.47</v>
       </c>
       <c r="J304" s="0" t="s">
-        <v>873</v>
+        <v>749</v>
       </c>
       <c r="K304" s="0" t="s">
-        <v>1201</v>
+        <v>1046</v>
       </c>
       <c r="L304" s="0">
         <v>259</v>
@@ -24623,10 +24134,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J305" s="0" t="s">
-        <v>874</v>
+        <v>748</v>
       </c>
       <c r="K305" s="0" t="s">
-        <v>1202</v>
+        <v>1047</v>
       </c>
       <c r="L305" s="0">
         <v>147</v>
@@ -24691,10 +24202,10 @@
         <v>2.1699999999999999</v>
       </c>
       <c r="J306" s="0" t="s">
-        <v>874</v>
+        <v>748</v>
       </c>
       <c r="K306" s="0" t="s">
-        <v>1203</v>
+        <v>1048</v>
       </c>
       <c r="L306" s="0">
         <v>377</v>
@@ -24759,10 +24270,10 @@
         <v>1.47</v>
       </c>
       <c r="J307" s="0" t="s">
-        <v>874</v>
+        <v>748</v>
       </c>
       <c r="K307" s="0" t="s">
-        <v>1204</v>
+        <v>1049</v>
       </c>
       <c r="L307" s="0">
         <v>349</v>
@@ -24827,10 +24338,10 @@
         <v>1.79</v>
       </c>
       <c r="J308" s="0" t="s">
-        <v>875</v>
+        <v>749</v>
       </c>
       <c r="K308" s="0" t="s">
-        <v>1205</v>
+        <v>1050</v>
       </c>
       <c r="L308" s="0">
         <v>204</v>
@@ -24895,10 +24406,10 @@
         <v>3.6299999999999999</v>
       </c>
       <c r="J309" s="0" t="s">
-        <v>875</v>
+        <v>749</v>
       </c>
       <c r="K309" s="0" t="s">
-        <v>1206</v>
+        <v>1051</v>
       </c>
       <c r="L309" s="0">
         <v>98</v>
@@ -24963,10 +24474,10 @@
         <v>0.91000000000000003</v>
       </c>
       <c r="J310" s="0" t="s">
-        <v>876</v>
+        <v>748</v>
       </c>
       <c r="K310" s="0" t="s">
-        <v>1207</v>
+        <v>1052</v>
       </c>
       <c r="L310" s="0">
         <v>1204</v>
@@ -25031,10 +24542,10 @@
         <v>1.77</v>
       </c>
       <c r="J311" s="0" t="s">
-        <v>877</v>
+        <v>749</v>
       </c>
       <c r="K311" s="0" t="s">
-        <v>1208</v>
+        <v>1053</v>
       </c>
       <c r="L311" s="0">
         <v>217</v>
@@ -25099,10 +24610,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J312" s="0" t="s">
-        <v>877</v>
+        <v>749</v>
       </c>
       <c r="K312" s="0" t="s">
-        <v>1209</v>
+        <v>1054</v>
       </c>
       <c r="L312" s="0">
         <v>595</v>
@@ -25167,10 +24678,10 @@
         <v>1.75</v>
       </c>
       <c r="J313" s="0" t="s">
-        <v>877</v>
+        <v>749</v>
       </c>
       <c r="K313" s="0" t="s">
-        <v>1210</v>
+        <v>1055</v>
       </c>
       <c r="L313" s="0">
         <v>280</v>
@@ -25235,10 +24746,10 @@
         <v>0.70999999999999996</v>
       </c>
       <c r="J314" s="0" t="s">
-        <v>878</v>
+        <v>748</v>
       </c>
       <c r="K314" s="0" t="s">
-        <v>1211</v>
+        <v>1056</v>
       </c>
       <c r="L314" s="0">
         <v>133</v>
@@ -25303,10 +24814,10 @@
         <v>1.24</v>
       </c>
       <c r="J315" s="0" t="s">
-        <v>878</v>
+        <v>748</v>
       </c>
       <c r="K315" s="0" t="s">
-        <v>1212</v>
+        <v>1057</v>
       </c>
       <c r="L315" s="0">
         <v>399</v>
@@ -25371,10 +24882,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="J316" s="0" t="s">
-        <v>878</v>
+        <v>748</v>
       </c>
       <c r="K316" s="0" t="s">
-        <v>1213</v>
+        <v>1058</v>
       </c>
       <c r="L316" s="0">
         <v>364</v>
@@ -25439,10 +24950,10 @@
         <v>0.41999999999999998</v>
       </c>
       <c r="J317" s="0" t="s">
-        <v>878</v>
+        <v>748</v>
       </c>
       <c r="K317" s="0" t="s">
-        <v>1214</v>
+        <v>1059</v>
       </c>
       <c r="L317" s="0">
         <v>833</v>
@@ -25507,10 +25018,10 @@
         <v>0.75</v>
       </c>
       <c r="J318" s="0" t="s">
-        <v>878</v>
+        <v>748</v>
       </c>
       <c r="K318" s="0" t="s">
-        <v>1215</v>
+        <v>985</v>
       </c>
       <c r="L318" s="0">
         <v>1456</v>
@@ -25575,10 +25086,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J319" s="0" t="s">
-        <v>879</v>
+        <v>749</v>
       </c>
       <c r="K319" s="0" t="s">
-        <v>1216</v>
+        <v>1060</v>
       </c>
       <c r="L319" s="0">
         <v>742</v>
@@ -25643,10 +25154,10 @@
         <v>1.77</v>
       </c>
       <c r="J320" s="0" t="s">
-        <v>879</v>
+        <v>749</v>
       </c>
       <c r="K320" s="0" t="s">
-        <v>1217</v>
+        <v>1061</v>
       </c>
       <c r="L320" s="0">
         <v>95</v>
@@ -25711,10 +25222,10 @@
         <v>0.92000000000000004</v>
       </c>
       <c r="J321" s="0" t="s">
-        <v>880</v>
+        <v>748</v>
       </c>
       <c r="K321" s="0" t="s">
-        <v>1218</v>
+        <v>1062</v>
       </c>
       <c r="L321" s="0">
         <v>966</v>
@@ -25779,10 +25290,10 @@
         <v>1.77</v>
       </c>
       <c r="J322" s="0" t="s">
-        <v>880</v>
+        <v>748</v>
       </c>
       <c r="K322" s="0" t="s">
-        <v>1219</v>
+        <v>1063</v>
       </c>
       <c r="L322" s="0">
         <v>462</v>
@@ -25847,10 +25358,10 @@
         <v>1.5600000000000001</v>
       </c>
       <c r="J323" s="0" t="s">
-        <v>881</v>
+        <v>749</v>
       </c>
       <c r="K323" s="0" t="s">
-        <v>1220</v>
+        <v>1064</v>
       </c>
       <c r="L323" s="0">
         <v>77</v>
@@ -25915,10 +25426,10 @@
         <v>0.94999999999999996</v>
       </c>
       <c r="J324" s="0" t="s">
-        <v>881</v>
+        <v>749</v>
       </c>
       <c r="K324" s="0" t="s">
-        <v>1221</v>
+        <v>1065</v>
       </c>
       <c r="L324" s="0">
         <v>588</v>
@@ -25983,10 +25494,10 @@
         <v>0.96999999999999997</v>
       </c>
       <c r="J325" s="0" t="s">
-        <v>882</v>
+        <v>748</v>
       </c>
       <c r="K325" s="0" t="s">
-        <v>1222</v>
+        <v>1066</v>
       </c>
       <c r="L325" s="0">
         <v>1120</v>
@@ -26051,10 +25562,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="J326" s="0" t="s">
-        <v>882</v>
+        <v>748</v>
       </c>
       <c r="K326" s="0" t="s">
-        <v>1223</v>
+        <v>1067</v>
       </c>
       <c r="L326" s="0">
         <v>413</v>
@@ -26119,10 +25630,10 @@
         <v>1.02</v>
       </c>
       <c r="J327" s="0" t="s">
-        <v>883</v>
+        <v>749</v>
       </c>
       <c r="K327" s="0" t="s">
-        <v>1224</v>
+        <v>1068</v>
       </c>
       <c r="L327" s="0">
         <v>266</v>
@@ -26187,10 +25698,10 @@
         <v>0.93000000000000005</v>
       </c>
       <c r="J328" s="0" t="s">
-        <v>883</v>
+        <v>749</v>
       </c>
       <c r="K328" s="0" t="s">
-        <v>1225</v>
+        <v>1069</v>
       </c>
       <c r="L328" s="0">
         <v>609</v>
@@ -26255,10 +25766,10 @@
         <v>1.73</v>
       </c>
       <c r="J329" s="0" t="s">
-        <v>883</v>
+        <v>749</v>
       </c>
       <c r="K329" s="0" t="s">
-        <v>1226</v>
+        <v>1070</v>
       </c>
       <c r="L329" s="0">
         <v>224</v>
@@ -26323,10 +25834,10 @@
         <v>0.68999999999999995</v>
       </c>
       <c r="J330" s="0" t="s">
-        <v>884</v>
+        <v>748</v>
       </c>
       <c r="K330" s="0" t="s">
-        <v>1227</v>
+        <v>935</v>
       </c>
       <c r="L330" s="0">
         <v>1043</v>
@@ -26391,10 +25902,10 @@
         <v>1.21</v>
       </c>
       <c r="J331" s="0" t="s">
-        <v>884</v>
+        <v>748</v>
       </c>
       <c r="K331" s="0" t="s">
-        <v>1228</v>
+        <v>1071</v>
       </c>
       <c r="L331" s="0">
         <v>644</v>
@@ -26459,10 +25970,10 @@
         <v>1.45</v>
       </c>
       <c r="J332" s="0" t="s">
-        <v>884</v>
+        <v>748</v>
       </c>
       <c r="K332" s="0" t="s">
-        <v>1229</v>
+        <v>1072</v>
       </c>
       <c r="L332" s="0">
         <v>385</v>
@@ -26527,10 +26038,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="J333" s="0" t="s">
-        <v>885</v>
+        <v>749</v>
       </c>
       <c r="K333" s="0" t="s">
-        <v>1230</v>
+        <v>1073</v>
       </c>
       <c r="L333" s="0">
         <v>91</v>
@@ -26595,10 +26106,10 @@
         <v>1.8300000000000001</v>
       </c>
       <c r="J334" s="0" t="s">
-        <v>885</v>
+        <v>749</v>
       </c>
       <c r="K334" s="0" t="s">
-        <v>1231</v>
+        <v>1074</v>
       </c>
       <c r="L334" s="0">
         <v>84</v>
@@ -26663,10 +26174,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J335" s="0" t="s">
-        <v>885</v>
+        <v>749</v>
       </c>
       <c r="K335" s="0" t="s">
-        <v>1232</v>
+        <v>1075</v>
       </c>
       <c r="L335" s="0">
         <v>2281</v>
@@ -26731,10 +26242,10 @@
         <v>1.8</v>
       </c>
       <c r="J336" s="0" t="s">
-        <v>885</v>
+        <v>749</v>
       </c>
       <c r="K336" s="0" t="s">
-        <v>1233</v>
+        <v>1076</v>
       </c>
       <c r="L336" s="0">
         <v>70</v>
@@ -26799,10 +26310,10 @@
         <v>0.89000000000000001</v>
       </c>
       <c r="J337" s="0" t="s">
-        <v>886</v>
+        <v>748</v>
       </c>
       <c r="K337" s="0" t="s">
-        <v>1234</v>
+        <v>1077</v>
       </c>
       <c r="L337" s="0">
         <v>525</v>
@@ -26867,10 +26378,10 @@
         <v>1.71</v>
       </c>
       <c r="J338" s="0" t="s">
-        <v>887</v>
+        <v>749</v>
       </c>
       <c r="K338" s="0" t="s">
-        <v>1235</v>
+        <v>1078</v>
       </c>
       <c r="L338" s="0">
         <v>75</v>
@@ -26935,10 +26446,10 @@
         <v>1.04</v>
       </c>
       <c r="J339" s="0" t="s">
-        <v>887</v>
+        <v>749</v>
       </c>
       <c r="K339" s="0" t="s">
-        <v>1236</v>
+        <v>1079</v>
       </c>
       <c r="L339" s="0">
         <v>273</v>
@@ -27003,10 +26514,10 @@
         <v>0.68999999999999995</v>
       </c>
       <c r="J340" s="0" t="s">
-        <v>888</v>
+        <v>748</v>
       </c>
       <c r="K340" s="0" t="s">
-        <v>1237</v>
+        <v>1080</v>
       </c>
       <c r="L340" s="0">
         <v>700</v>
@@ -27071,10 +26582,10 @@
         <v>0.68000000000000005</v>
       </c>
       <c r="J341" s="0" t="s">
-        <v>888</v>
+        <v>748</v>
       </c>
       <c r="K341" s="0" t="s">
-        <v>1238</v>
+        <v>1081</v>
       </c>
       <c r="L341" s="0">
         <v>1155</v>
@@ -27139,10 +26650,10 @@
         <v>0.75</v>
       </c>
       <c r="J342" s="0" t="s">
-        <v>888</v>
+        <v>748</v>
       </c>
       <c r="K342" s="0" t="s">
-        <v>1239</v>
+        <v>1082</v>
       </c>
       <c r="L342" s="0">
         <v>1211</v>
@@ -27207,10 +26718,10 @@
         <v>1.46</v>
       </c>
       <c r="J343" s="0" t="s">
-        <v>889</v>
+        <v>749</v>
       </c>
       <c r="K343" s="0" t="s">
-        <v>1240</v>
+        <v>797</v>
       </c>
       <c r="L343" s="0">
         <v>61</v>
@@ -27275,10 +26786,10 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="J344" s="0" t="s">
-        <v>890</v>
+        <v>748</v>
       </c>
       <c r="K344" s="0" t="s">
-        <v>1241</v>
+        <v>1083</v>
       </c>
       <c r="L344" s="0">
         <v>1393</v>
@@ -27343,10 +26854,10 @@
         <v>0.53000000000000003</v>
       </c>
       <c r="J345" s="0" t="s">
-        <v>890</v>
+        <v>748</v>
       </c>
       <c r="K345" s="0" t="s">
-        <v>1242</v>
+        <v>1084</v>
       </c>
       <c r="L345" s="0">
         <v>1071</v>
@@ -27411,10 +26922,10 @@
         <v>1.49</v>
       </c>
       <c r="J346" s="0" t="s">
-        <v>891</v>
+        <v>749</v>
       </c>
       <c r="K346" s="0" t="s">
-        <v>1243</v>
+        <v>1016</v>
       </c>
       <c r="L346" s="0">
         <v>40</v>
@@ -27479,10 +26990,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J347" s="0" t="s">
-        <v>891</v>
+        <v>749</v>
       </c>
       <c r="K347" s="0" t="s">
-        <v>1244</v>
+        <v>1085</v>
       </c>
       <c r="L347" s="0">
         <v>14</v>
@@ -27547,10 +27058,10 @@
         <v>0.81000000000000005</v>
       </c>
       <c r="J348" s="0" t="s">
-        <v>892</v>
+        <v>748</v>
       </c>
       <c r="K348" s="0" t="s">
-        <v>1245</v>
+        <v>1086</v>
       </c>
       <c r="L348" s="0">
         <v>581</v>
@@ -27615,10 +27126,10 @@
         <v>0.82999999999999996</v>
       </c>
       <c r="J349" s="0" t="s">
-        <v>892</v>
+        <v>748</v>
       </c>
       <c r="K349" s="0" t="s">
-        <v>1246</v>
+        <v>1087</v>
       </c>
       <c r="L349" s="0">
         <v>560</v>
@@ -27683,10 +27194,10 @@
         <v>1.23</v>
       </c>
       <c r="J350" s="0" t="s">
-        <v>892</v>
+        <v>748</v>
       </c>
       <c r="K350" s="0" t="s">
-        <v>1247</v>
+        <v>1088</v>
       </c>
       <c r="L350" s="0">
         <v>210</v>
@@ -27751,10 +27262,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J351" s="0" t="s">
-        <v>893</v>
+        <v>749</v>
       </c>
       <c r="K351" s="0" t="s">
-        <v>1248</v>
+        <v>950</v>
       </c>
       <c r="L351" s="0">
         <v>47</v>
@@ -27819,10 +27330,10 @@
         <v>0.97999999999999998</v>
       </c>
       <c r="J352" s="0" t="s">
-        <v>894</v>
+        <v>748</v>
       </c>
       <c r="K352" s="0" t="s">
-        <v>1249</v>
+        <v>1089</v>
       </c>
       <c r="L352" s="0">
         <v>35</v>
@@ -27887,10 +27398,10 @@
         <v>1.6599999999999999</v>
       </c>
       <c r="J353" s="0" t="s">
-        <v>894</v>
+        <v>748</v>
       </c>
       <c r="K353" s="0" t="s">
-        <v>1250</v>
+        <v>1090</v>
       </c>
       <c r="L353" s="0">
         <v>63</v>
@@ -27955,10 +27466,10 @@
         <v>1.3300000000000001</v>
       </c>
       <c r="J354" s="0" t="s">
-        <v>895</v>
+        <v>749</v>
       </c>
       <c r="K354" s="0" t="s">
-        <v>1251</v>
+        <v>921</v>
       </c>
       <c r="L354" s="0">
         <v>54</v>
@@ -28023,10 +27534,10 @@
         <v>1.78</v>
       </c>
       <c r="J355" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K355" s="0" t="s">
-        <v>1252</v>
+        <v>1091</v>
       </c>
       <c r="L355" s="0">
         <v>2377</v>
@@ -28091,10 +27602,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J356" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K356" s="0" t="s">
-        <v>1253</v>
+        <v>1092</v>
       </c>
       <c r="L356" s="0">
         <v>2312</v>
@@ -28159,10 +27670,10 @@
         <v>0.37</v>
       </c>
       <c r="J357" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K357" s="0" t="s">
-        <v>1254</v>
+        <v>1093</v>
       </c>
       <c r="L357" s="0">
         <v>1316</v>
@@ -28227,10 +27738,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J358" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K358" s="0" t="s">
-        <v>1255</v>
+        <v>1094</v>
       </c>
       <c r="L358" s="0">
         <v>21</v>
@@ -28295,10 +27806,10 @@
         <v>1.04</v>
       </c>
       <c r="J359" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K359" s="0" t="s">
-        <v>1256</v>
+        <v>1095</v>
       </c>
       <c r="L359" s="0">
         <v>7</v>
@@ -28361,10 +27872,10 @@
         <v>0</v>
       </c>
       <c r="J360" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K360" s="0" t="s">
-        <v>1257</v>
+        <v>1096</v>
       </c>
       <c r="L360" s="0"/>
       <c r="M360" s="0">
@@ -28417,10 +27928,10 @@
         <v>0</v>
       </c>
       <c r="J361" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K361" s="0" t="s">
-        <v>1258</v>
+        <v>1091</v>
       </c>
       <c r="L361" s="0"/>
       <c r="M361" s="0">
@@ -28473,10 +27984,10 @@
         <v>0</v>
       </c>
       <c r="J362" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K362" s="0" t="s">
-        <v>1259</v>
+        <v>1097</v>
       </c>
       <c r="L362" s="0"/>
       <c r="M362" s="0">
@@ -28529,10 +28040,10 @@
         <v>0</v>
       </c>
       <c r="J363" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K363" s="0" t="s">
-        <v>1260</v>
+        <v>1098</v>
       </c>
       <c r="L363" s="0"/>
       <c r="M363" s="0">
@@ -28585,10 +28096,10 @@
         <v>0</v>
       </c>
       <c r="J364" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K364" s="0" t="s">
-        <v>1261</v>
+        <v>1099</v>
       </c>
       <c r="L364" s="0"/>
       <c r="M364" s="0">
@@ -28641,10 +28152,10 @@
         <v>0</v>
       </c>
       <c r="J365" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K365" s="0" t="s">
-        <v>1262</v>
+        <v>1100</v>
       </c>
       <c r="L365" s="0"/>
       <c r="M365" s="0">
@@ -28697,10 +28208,10 @@
         <v>0</v>
       </c>
       <c r="J366" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K366" s="0" t="s">
-        <v>1263</v>
+        <v>854</v>
       </c>
       <c r="L366" s="0"/>
       <c r="M366" s="0">
@@ -28753,10 +28264,10 @@
         <v>0</v>
       </c>
       <c r="J367" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K367" s="0" t="s">
-        <v>1264</v>
+        <v>1101</v>
       </c>
       <c r="L367" s="0"/>
       <c r="M367" s="0">
@@ -28809,10 +28320,10 @@
         <v>0</v>
       </c>
       <c r="J368" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K368" s="0" t="s">
-        <v>1265</v>
+        <v>1098</v>
       </c>
       <c r="L368" s="0"/>
       <c r="M368" s="0">
@@ -28865,10 +28376,10 @@
         <v>0</v>
       </c>
       <c r="J369" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K369" s="0" t="s">
-        <v>1266</v>
+        <v>1102</v>
       </c>
       <c r="L369" s="0"/>
       <c r="M369" s="0">
@@ -28923,10 +28434,10 @@
         <v>0</v>
       </c>
       <c r="J370" s="0" t="s">
-        <v>897</v>
+        <v>749</v>
       </c>
       <c r="K370" s="0" t="s">
-        <v>1267</v>
+        <v>1103</v>
       </c>
       <c r="L370" s="0">
         <v>0</v>
